--- a/teaching/traditional_assets/database/data/new_zealand/new_zealand_oil_gas_production_and_exploration.xlsx
+++ b/teaching/traditional_assets/database/data/new_zealand/new_zealand_oil_gas_production_and_exploration.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="nzse_nzo" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,34 +593,34 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.1204</v>
+        <v>-0.09545000000000001</v>
       </c>
       <c r="G2">
-        <v>0.3080890336590662</v>
+        <v>0.3137517146776406</v>
       </c>
       <c r="H2">
-        <v>0.3080890336590662</v>
+        <v>0.3137517146776406</v>
       </c>
       <c r="I2">
-        <v>-0.04900928838198194</v>
+        <v>-0.001574355355316719</v>
       </c>
       <c r="J2">
-        <v>-0.03675696628648646</v>
+        <v>-0.001180766516487539</v>
       </c>
       <c r="K2">
-        <v>-6.55</v>
+        <v>-2.432</v>
       </c>
       <c r="L2">
-        <v>-0.1777958740499457</v>
+        <v>-0.08340192043895747</v>
       </c>
       <c r="M2">
-        <v>0.011</v>
+        <v>0.005</v>
       </c>
       <c r="N2">
-        <v>0.0001572102329569816</v>
+        <v>7.5041272699985e-05</v>
       </c>
       <c r="O2">
-        <v>-0.001679389312977099</v>
+        <v>-0.002055921052631579</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -630,76 +632,79 @@
         <v>-0</v>
       </c>
       <c r="S2">
-        <v>0.011</v>
+        <v>0.005</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
       <c r="U2">
-        <v>63.549</v>
+        <v>63.617</v>
       </c>
       <c r="V2">
-        <v>0.908232099471202</v>
+        <v>0.9547801290709892</v>
       </c>
       <c r="W2">
-        <v>-0.1986370045433182</v>
+        <v>-0.2869631763244098</v>
       </c>
       <c r="X2">
-        <v>0.07904932088985708</v>
+        <v>0.0533405710658749</v>
       </c>
       <c r="Y2">
-        <v>-0.2776863254331753</v>
+        <v>-0.3403037473902847</v>
       </c>
       <c r="Z2">
-        <v>0.9996062647529746</v>
+        <v>0.9723065679106641</v>
       </c>
       <c r="AA2">
-        <v>-0.1502085414159707</v>
+        <v>-0.3022428941172073</v>
       </c>
       <c r="AB2">
-        <v>0.0786310087180519</v>
+        <v>0.05324206685312176</v>
       </c>
       <c r="AC2">
-        <v>-0.2288395501340226</v>
+        <v>-0.3554849609703291</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AE2">
-        <v>0.3175109199610762</v>
+        <v>0.00954101080517749</v>
       </c>
       <c r="AF2">
-        <v>0.3175109199610762</v>
+        <v>0.1495410108051775</v>
       </c>
       <c r="AG2">
-        <v>-63.23148908003893</v>
+        <v>-63.46745898919482</v>
       </c>
       <c r="AH2">
-        <v>0.004517316317014516</v>
+        <v>0.002239323729119091</v>
       </c>
       <c r="AI2">
-        <v>0.003135987414170381</v>
+        <v>0.001545491113775314</v>
       </c>
       <c r="AJ2">
-        <v>-9.383599704903974</v>
+        <v>-20.06850149052652</v>
       </c>
       <c r="AK2">
-        <v>-1.677294077060172</v>
+        <v>-1.914984701037349</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="AM2">
-        <v>-1.529</v>
+        <v>-1.252</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>0.01644930090471155</v>
+      </c>
+      <c r="AO2">
+        <v>-8.333333333333341</v>
       </c>
       <c r="AP2">
-        <v>-6.035842791145372</v>
+        <v>-7.457109504076468</v>
       </c>
       <c r="AQ2">
-        <v>1.250490516677567</v>
+        <v>0.03993610223642176</v>
       </c>
     </row>
     <row r="3">
@@ -719,34 +724,34 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.16</v>
+        <v>-0.203</v>
       </c>
       <c r="G3">
-        <v>0.3470790378006873</v>
+        <v>0.362655601659751</v>
       </c>
       <c r="H3">
-        <v>0.3470790378006873</v>
+        <v>0.362655601659751</v>
       </c>
       <c r="I3">
-        <v>-0.02320779638640605</v>
+        <v>0.04979253112033195</v>
       </c>
       <c r="J3">
-        <v>-0.01160389819320303</v>
+        <v>0.02489626556016597</v>
       </c>
       <c r="K3">
-        <v>-5.02</v>
+        <v>-0.892</v>
       </c>
       <c r="L3">
-        <v>-0.1725085910652921</v>
+        <v>-0.03701244813278008</v>
       </c>
       <c r="M3">
-        <v>0.011</v>
+        <v>0.005</v>
       </c>
       <c r="N3">
-        <v>0.0001612903225806451</v>
+        <v>7.82472613458529e-05</v>
       </c>
       <c r="O3">
-        <v>-0.002191235059760956</v>
+        <v>-0.005605381165919282</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -758,76 +763,79 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.011</v>
+        <v>0.005</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
       <c r="U3">
-        <v>62.8</v>
+        <v>63.2</v>
       </c>
       <c r="V3">
-        <v>0.9208211143695014</v>
+        <v>0.9890453834115807</v>
       </c>
       <c r="W3">
-        <v>-0.05112016293279022</v>
+        <v>-0.009823788546255508</v>
       </c>
       <c r="X3">
-        <v>0.07889107428363454</v>
+        <v>0.05331993964451791</v>
       </c>
       <c r="Y3">
-        <v>-0.1300112372164248</v>
+        <v>-0.06314372819077342</v>
       </c>
       <c r="Z3">
-        <v>0.8828954647995952</v>
+        <v>0.8607142857142858</v>
       </c>
       <c r="AA3">
-        <v>-0.01024502908877517</v>
+        <v>0.02142857142857143</v>
       </c>
       <c r="AB3">
-        <v>0.07865598415159347</v>
+        <v>0.05323359624117262</v>
       </c>
       <c r="AC3">
-        <v>-0.08890101324036864</v>
+        <v>-0.03180502481260119</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AE3">
-        <v>0.2967343742220808</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.2967343742220808</v>
+        <v>0.14</v>
       </c>
       <c r="AG3">
-        <v>-62.50326562577791</v>
+        <v>-63.06</v>
       </c>
       <c r="AH3">
-        <v>0.004332095200348021</v>
+        <v>0.002186133666458464</v>
       </c>
       <c r="AI3">
-        <v>0.003012631597456698</v>
+        <v>0.001466890192791283</v>
       </c>
       <c r="AJ3">
-        <v>-10.97177110953378</v>
+        <v>-75.07142857142891</v>
       </c>
       <c r="AK3">
-        <v>-1.750951920994594</v>
+        <v>-1.955955334987593</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="AM3">
-        <v>-1.46</v>
+        <v>-1.244</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>0.01601830663615561</v>
+      </c>
+      <c r="AO3">
+        <v>200</v>
       </c>
       <c r="AP3">
-        <v>-6.094312171000187</v>
+        <v>-7.215102974828375</v>
       </c>
       <c r="AQ3">
-        <v>0.5287671232876713</v>
+        <v>-0.9646302250803859</v>
       </c>
     </row>
     <row r="4">
@@ -847,25 +855,25 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.0808</v>
+        <v>0.0121</v>
       </c>
       <c r="G4">
-        <v>0.1614987080103359</v>
+        <v>0.0808300395256917</v>
       </c>
       <c r="H4">
-        <v>0.1614987080103359</v>
+        <v>0.0808300395256917</v>
       </c>
       <c r="I4">
-        <v>-0.146014897822713</v>
+        <v>-0.2462269174231295</v>
       </c>
       <c r="J4">
-        <v>-0.146014897822713</v>
+        <v>-0.2462269174231295</v>
       </c>
       <c r="K4">
-        <v>-1.53</v>
+        <v>-1.54</v>
       </c>
       <c r="L4">
-        <v>-0.1976744186046512</v>
+        <v>-0.3043478260869565</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -889,70 +897,8788 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.749</v>
+        <v>0.417</v>
       </c>
       <c r="V4">
-        <v>0.4231638418079096</v>
+        <v>0.1527472527472527</v>
       </c>
       <c r="W4">
-        <v>-0.3461538461538461</v>
+        <v>-0.5641025641025641</v>
       </c>
       <c r="X4">
-        <v>0.07920756749607964</v>
+        <v>0.05336120248723189</v>
       </c>
       <c r="Y4">
-        <v>-0.4253614136499258</v>
+        <v>-0.617463766589796</v>
       </c>
       <c r="Z4">
-        <v>1.987277038644951</v>
+        <v>2.542022481593193</v>
       </c>
       <c r="AA4">
-        <v>-0.2901720537431662</v>
+        <v>-0.625914359662986</v>
       </c>
       <c r="AB4">
-        <v>0.07860603328451032</v>
+        <v>0.0532505374650709</v>
       </c>
       <c r="AC4">
-        <v>-0.3687780870276766</v>
+        <v>-0.6791648971280569</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.02077654573899541</v>
+        <v>0.00954101080517749</v>
       </c>
       <c r="AF4">
-        <v>0.02077654573899541</v>
+        <v>0.00954101080517749</v>
       </c>
       <c r="AG4">
-        <v>-0.7282234542610045</v>
+        <v>-0.4074589891948225</v>
       </c>
       <c r="AH4">
-        <v>0.01160197557223512</v>
+        <v>0.003482704134578111</v>
       </c>
       <c r="AI4">
-        <v>0.007552974730418821</v>
+        <v>0.007230552689950585</v>
       </c>
       <c r="AJ4">
-        <v>-0.6990207806458452</v>
+        <v>-0.1754367252501452</v>
       </c>
       <c r="AK4">
-        <v>-0.3637885836014561</v>
+        <v>-0.4514575895352599</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>-0.06900000000000001</v>
+        <v>-0.008</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AP4">
-        <v>-3.310106610277293</v>
+        <v>1.77929689604726</v>
       </c>
       <c r="AQ4">
-        <v>16.52173913043478</v>
+        <v>156.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>New Zealand Oil &amp; Gas Limited (NZSE:NZO)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NZSE:NZO</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Oil/Gas (Production and Exploration)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.00218613366645846</v>
+      </c>
+      <c r="F2">
+        <v>0.99</v>
+      </c>
+      <c r="G2">
+        <v>63.9</v>
+      </c>
+      <c r="H2">
+        <v>0.647138652891272</v>
+      </c>
+      <c r="I2">
+        <v>0.839999999999989</v>
+      </c>
+      <c r="J2">
+        <v>0.846738652891266</v>
+      </c>
+      <c r="K2">
+        <v>0.14</v>
+      </c>
+      <c r="L2">
+        <v>63.3996</v>
+      </c>
+      <c r="M2">
+        <v>0.0532335962411726</v>
+      </c>
+      <c r="N2">
+        <v>0.0479697802619682</v>
+      </c>
+      <c r="O2">
+        <v>0.013824</v>
+      </c>
+      <c r="P2">
+        <v>0.016272</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0533199396445179</v>
+      </c>
+      <c r="T2">
+        <v>3.18605002619682</v>
+      </c>
+      <c r="U2">
+        <v>0.9326258399262271</v>
+      </c>
+      <c r="V2">
+        <v>67.3040259787462</v>
+      </c>
+      <c r="W2">
+        <v>4.815641337063237</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>63.9</v>
+      </c>
+      <c r="AB2">
+        <v>0.0472</v>
+      </c>
+      <c r="AC2">
+        <v>0.0192</v>
+      </c>
+      <c r="AD2">
+        <v>0.28</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>8.74</v>
+      </c>
+      <c r="AH2">
+        <v>1.84</v>
+      </c>
+      <c r="AI2">
+        <v>5.390000000000001</v>
+      </c>
+      <c r="AJ2">
+        <v>0.14</v>
+      </c>
+      <c r="AK2">
+        <v>0.14</v>
+      </c>
+      <c r="AL2">
+        <v>0.006</v>
+      </c>
+      <c r="AM2">
+        <v>0.14</v>
+      </c>
+      <c r="AN2">
+        <v>63.2</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.05325060910620953</v>
+      </c>
+      <c r="C2">
+        <v>64.03997839428837</v>
+      </c>
+      <c r="D2">
+        <v>0.8399783942883721</v>
+      </c>
+      <c r="E2">
+        <v>-0.14</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>63.2</v>
+      </c>
+      <c r="H2">
+        <v>63.9</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>8.74</v>
+      </c>
+      <c r="K2">
+        <v>1.84</v>
+      </c>
+      <c r="L2">
+        <v>6.9</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>6.9</v>
+      </c>
+      <c r="O2">
+        <v>1.932</v>
+      </c>
+      <c r="P2">
+        <v>4.968</v>
+      </c>
+      <c r="Q2">
+        <v>6.808</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.05325060910620953</v>
+      </c>
+      <c r="T2">
+        <v>0.931156972589185</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.28</v>
+      </c>
+      <c r="W2">
+        <v>0.011664</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.05315118740071215</v>
+      </c>
+      <c r="C3">
+        <v>63.39970467192377</v>
+      </c>
+      <c r="D3">
+        <v>0.8401046719237623</v>
+      </c>
+      <c r="E3">
+        <v>0.5004</v>
+      </c>
+      <c r="F3">
+        <v>0.6404</v>
+      </c>
+      <c r="G3">
+        <v>63.2</v>
+      </c>
+      <c r="H3">
+        <v>63.9</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>8.74</v>
+      </c>
+      <c r="K3">
+        <v>1.84</v>
+      </c>
+      <c r="L3">
+        <v>6.9</v>
+      </c>
+      <c r="M3">
+        <v>0.01037448</v>
+      </c>
+      <c r="N3">
+        <v>6.88962552</v>
+      </c>
+      <c r="O3">
+        <v>1.9290951456</v>
+      </c>
+      <c r="P3">
+        <v>4.960530374399999</v>
+      </c>
+      <c r="Q3">
+        <v>6.800530374399999</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.05357024989970924</v>
+      </c>
+      <c r="T3">
+        <v>0.9379290232989245</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.28</v>
+      </c>
+      <c r="W3">
+        <v>0.011664</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>665.0935757744004</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.05305176569521475</v>
+      </c>
+      <c r="C4">
+        <v>62.75943098753261</v>
+      </c>
+      <c r="D4">
+        <v>0.8402309875326025</v>
+      </c>
+      <c r="E4">
+        <v>1.1408</v>
+      </c>
+      <c r="F4">
+        <v>1.2808</v>
+      </c>
+      <c r="G4">
+        <v>63.2</v>
+      </c>
+      <c r="H4">
+        <v>63.9</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>8.74</v>
+      </c>
+      <c r="K4">
+        <v>1.84</v>
+      </c>
+      <c r="L4">
+        <v>6.9</v>
+      </c>
+      <c r="M4">
+        <v>0.02074896</v>
+      </c>
+      <c r="N4">
+        <v>6.879251040000001</v>
+      </c>
+      <c r="O4">
+        <v>1.9261902912</v>
+      </c>
+      <c r="P4">
+        <v>4.9530607488</v>
+      </c>
+      <c r="Q4">
+        <v>6.7930607488</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.05389641397470893</v>
+      </c>
+      <c r="T4">
+        <v>0.9448392791251893</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.28</v>
+      </c>
+      <c r="W4">
+        <v>0.011664</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>332.5467878872002</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.05295234398971736</v>
+      </c>
+      <c r="C5">
+        <v>62.11915734113202</v>
+      </c>
+      <c r="D5">
+        <v>0.840357341132024</v>
+      </c>
+      <c r="E5">
+        <v>1.7812</v>
+      </c>
+      <c r="F5">
+        <v>1.9212</v>
+      </c>
+      <c r="G5">
+        <v>63.2</v>
+      </c>
+      <c r="H5">
+        <v>63.9</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>8.74</v>
+      </c>
+      <c r="K5">
+        <v>1.84</v>
+      </c>
+      <c r="L5">
+        <v>6.9</v>
+      </c>
+      <c r="M5">
+        <v>0.03112344</v>
+      </c>
+      <c r="N5">
+        <v>6.86887656</v>
+      </c>
+      <c r="O5">
+        <v>1.9232854368</v>
+      </c>
+      <c r="P5">
+        <v>4.9455911232</v>
+      </c>
+      <c r="Q5">
+        <v>6.7855911232</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.05422930308218285</v>
+      </c>
+      <c r="T5">
+        <v>0.9518920144530266</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.28</v>
+      </c>
+      <c r="W5">
+        <v>0.011664</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>221.6978585914668</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.05285292228421998</v>
+      </c>
+      <c r="C6">
+        <v>61.47888373273918</v>
+      </c>
+      <c r="D6">
+        <v>0.8404837327391684</v>
+      </c>
+      <c r="E6">
+        <v>2.4216</v>
+      </c>
+      <c r="F6">
+        <v>2.5616</v>
+      </c>
+      <c r="G6">
+        <v>63.2</v>
+      </c>
+      <c r="H6">
+        <v>63.9</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>8.74</v>
+      </c>
+      <c r="K6">
+        <v>1.84</v>
+      </c>
+      <c r="L6">
+        <v>6.9</v>
+      </c>
+      <c r="M6">
+        <v>0.04149791999999999</v>
+      </c>
+      <c r="N6">
+        <v>6.85850208</v>
+      </c>
+      <c r="O6">
+        <v>1.9203805824</v>
+      </c>
+      <c r="P6">
+        <v>4.9381214976</v>
+      </c>
+      <c r="Q6">
+        <v>6.7781214976</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.05456912737939582</v>
+      </c>
+      <c r="T6">
+        <v>0.9590916817668605</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.28</v>
+      </c>
+      <c r="W6">
+        <v>0.011664</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>166.2733939436001</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.05275350057872259</v>
+      </c>
+      <c r="C7">
+        <v>60.8386101623712</v>
+      </c>
+      <c r="D7">
+        <v>0.8406101623711878</v>
+      </c>
+      <c r="E7">
+        <v>3.062</v>
+      </c>
+      <c r="F7">
+        <v>3.202</v>
+      </c>
+      <c r="G7">
+        <v>63.2</v>
+      </c>
+      <c r="H7">
+        <v>63.9</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>8.74</v>
+      </c>
+      <c r="K7">
+        <v>1.84</v>
+      </c>
+      <c r="L7">
+        <v>6.9</v>
+      </c>
+      <c r="M7">
+        <v>0.0518724</v>
+      </c>
+      <c r="N7">
+        <v>6.848127600000001</v>
+      </c>
+      <c r="O7">
+        <v>1.917475728</v>
+      </c>
+      <c r="P7">
+        <v>4.930651872</v>
+      </c>
+      <c r="Q7">
+        <v>6.770651872</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.05491610587233957</v>
+      </c>
+      <c r="T7">
+        <v>0.9664429210241435</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.28</v>
+      </c>
+      <c r="W7">
+        <v>0.011664</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>133.0187151548801</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.05265407887322521</v>
+      </c>
+      <c r="C8">
+        <v>60.19833663004525</v>
+      </c>
+      <c r="D8">
+        <v>0.8407366300452443</v>
+      </c>
+      <c r="E8">
+        <v>3.702399999999999</v>
+      </c>
+      <c r="F8">
+        <v>3.8424</v>
+      </c>
+      <c r="G8">
+        <v>63.2</v>
+      </c>
+      <c r="H8">
+        <v>63.9</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>8.74</v>
+      </c>
+      <c r="K8">
+        <v>1.84</v>
+      </c>
+      <c r="L8">
+        <v>6.9</v>
+      </c>
+      <c r="M8">
+        <v>0.06224687999999999</v>
+      </c>
+      <c r="N8">
+        <v>6.83775312</v>
+      </c>
+      <c r="O8">
+        <v>1.9145708736</v>
+      </c>
+      <c r="P8">
+        <v>4.9231822464</v>
+      </c>
+      <c r="Q8">
+        <v>6.7631822464</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.0552704668864098</v>
+      </c>
+      <c r="T8">
+        <v>0.9739505696273263</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.28</v>
+      </c>
+      <c r="W8">
+        <v>0.011664</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>110.8489292957334</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.05255465716772782</v>
+      </c>
+      <c r="C9">
+        <v>59.55806313577851</v>
+      </c>
+      <c r="D9">
+        <v>0.8408631357785104</v>
+      </c>
+      <c r="E9">
+        <v>4.3428</v>
+      </c>
+      <c r="F9">
+        <v>4.4828</v>
+      </c>
+      <c r="G9">
+        <v>63.2</v>
+      </c>
+      <c r="H9">
+        <v>63.9</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>8.74</v>
+      </c>
+      <c r="K9">
+        <v>1.84</v>
+      </c>
+      <c r="L9">
+        <v>6.9</v>
+      </c>
+      <c r="M9">
+        <v>0.07262136</v>
+      </c>
+      <c r="N9">
+        <v>6.82737864</v>
+      </c>
+      <c r="O9">
+        <v>1.9116660192</v>
+      </c>
+      <c r="P9">
+        <v>4.9157126208</v>
+      </c>
+      <c r="Q9">
+        <v>6.7557126208</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.05563244856744927</v>
+      </c>
+      <c r="T9">
+        <v>0.9816196730391795</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.28</v>
+      </c>
+      <c r="W9">
+        <v>0.011664</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>95.01336796777147</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.05245523546223044</v>
+      </c>
+      <c r="C10">
+        <v>58.91778967958817</v>
+      </c>
+      <c r="D10">
+        <v>0.8409896795881691</v>
+      </c>
+      <c r="E10">
+        <v>4.9832</v>
+      </c>
+      <c r="F10">
+        <v>5.1232</v>
+      </c>
+      <c r="G10">
+        <v>63.2</v>
+      </c>
+      <c r="H10">
+        <v>63.9</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>8.74</v>
+      </c>
+      <c r="K10">
+        <v>1.84</v>
+      </c>
+      <c r="L10">
+        <v>6.9</v>
+      </c>
+      <c r="M10">
+        <v>0.08299583999999999</v>
+      </c>
+      <c r="N10">
+        <v>6.817004160000001</v>
+      </c>
+      <c r="O10">
+        <v>1.9087611648</v>
+      </c>
+      <c r="P10">
+        <v>4.9082429952</v>
+      </c>
+      <c r="Q10">
+        <v>6.7482429952</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.05600229941546786</v>
+      </c>
+      <c r="T10">
+        <v>0.9894554960904208</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.28</v>
+      </c>
+      <c r="W10">
+        <v>0.011664</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>83.13669697180005</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.05235581375673305</v>
+      </c>
+      <c r="C11">
+        <v>58.27751626149141</v>
+      </c>
+      <c r="D11">
+        <v>0.8411162614914137</v>
+      </c>
+      <c r="E11">
+        <v>5.6236</v>
+      </c>
+      <c r="F11">
+        <v>5.763599999999999</v>
+      </c>
+      <c r="G11">
+        <v>63.2</v>
+      </c>
+      <c r="H11">
+        <v>63.9</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>8.74</v>
+      </c>
+      <c r="K11">
+        <v>1.84</v>
+      </c>
+      <c r="L11">
+        <v>6.9</v>
+      </c>
+      <c r="M11">
+        <v>0.09337031999999998</v>
+      </c>
+      <c r="N11">
+        <v>6.80662968</v>
+      </c>
+      <c r="O11">
+        <v>1.9058563104</v>
+      </c>
+      <c r="P11">
+        <v>4.9007733696</v>
+      </c>
+      <c r="Q11">
+        <v>6.740773369599999</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.0563802788535528</v>
+      </c>
+      <c r="T11">
+        <v>0.9974635350328984</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.28</v>
+      </c>
+      <c r="W11">
+        <v>0.011664</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>73.8992861971556</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.05225639205123566</v>
+      </c>
+      <c r="C12">
+        <v>57.63724288150546</v>
+      </c>
+      <c r="D12">
+        <v>0.8412428815054477</v>
+      </c>
+      <c r="E12">
+        <v>6.264</v>
+      </c>
+      <c r="F12">
+        <v>6.404</v>
+      </c>
+      <c r="G12">
+        <v>63.2</v>
+      </c>
+      <c r="H12">
+        <v>63.9</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>8.74</v>
+      </c>
+      <c r="K12">
+        <v>1.84</v>
+      </c>
+      <c r="L12">
+        <v>6.9</v>
+      </c>
+      <c r="M12">
+        <v>0.1037448</v>
+      </c>
+      <c r="N12">
+        <v>6.7962552</v>
+      </c>
+      <c r="O12">
+        <v>1.902951456</v>
+      </c>
+      <c r="P12">
+        <v>4.893303744</v>
+      </c>
+      <c r="Q12">
+        <v>6.733303744</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.05676665783470629</v>
+      </c>
+      <c r="T12">
+        <v>1.00564953039632</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.28</v>
+      </c>
+      <c r="W12">
+        <v>0.011664</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>66.50935757744003</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.05215697034573828</v>
+      </c>
+      <c r="C13">
+        <v>56.99696953964749</v>
+      </c>
+      <c r="D13">
+        <v>0.8413695396474851</v>
+      </c>
+      <c r="E13">
+        <v>6.9044</v>
+      </c>
+      <c r="F13">
+        <v>7.0444</v>
+      </c>
+      <c r="G13">
+        <v>63.2</v>
+      </c>
+      <c r="H13">
+        <v>63.9</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>8.74</v>
+      </c>
+      <c r="K13">
+        <v>1.84</v>
+      </c>
+      <c r="L13">
+        <v>6.9</v>
+      </c>
+      <c r="M13">
+        <v>0.11411928</v>
+      </c>
+      <c r="N13">
+        <v>6.785880720000001</v>
+      </c>
+      <c r="O13">
+        <v>1.9000466016</v>
+      </c>
+      <c r="P13">
+        <v>4.8858341184</v>
+      </c>
+      <c r="Q13">
+        <v>6.7258341184</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.05716171948959357</v>
+      </c>
+      <c r="T13">
+        <v>1.014019480711728</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.28</v>
+      </c>
+      <c r="W13">
+        <v>0.011664</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>60.46305234312731</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.05205754864024088</v>
+      </c>
+      <c r="C14">
+        <v>56.35669623593476</v>
+      </c>
+      <c r="D14">
+        <v>0.8414962359347501</v>
+      </c>
+      <c r="E14">
+        <v>7.5448</v>
+      </c>
+      <c r="F14">
+        <v>7.684799999999999</v>
+      </c>
+      <c r="G14">
+        <v>63.2</v>
+      </c>
+      <c r="H14">
+        <v>63.9</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>8.74</v>
+      </c>
+      <c r="K14">
+        <v>1.84</v>
+      </c>
+      <c r="L14">
+        <v>6.9</v>
+      </c>
+      <c r="M14">
+        <v>0.12449376</v>
+      </c>
+      <c r="N14">
+        <v>6.77550624</v>
+      </c>
+      <c r="O14">
+        <v>1.8971417472</v>
+      </c>
+      <c r="P14">
+        <v>4.8783644928</v>
+      </c>
+      <c r="Q14">
+        <v>6.7183644928</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.05756575981845555</v>
+      </c>
+      <c r="T14">
+        <v>1.022579657170668</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.28</v>
+      </c>
+      <c r="W14">
+        <v>0.011664</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>55.4244646478667</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.0519581269347435</v>
+      </c>
+      <c r="C15">
+        <v>55.71642297038449</v>
+      </c>
+      <c r="D15">
+        <v>0.8416229703844778</v>
+      </c>
+      <c r="E15">
+        <v>8.185199999999998</v>
+      </c>
+      <c r="F15">
+        <v>8.325199999999999</v>
+      </c>
+      <c r="G15">
+        <v>63.2</v>
+      </c>
+      <c r="H15">
+        <v>63.9</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>8.74</v>
+      </c>
+      <c r="K15">
+        <v>1.84</v>
+      </c>
+      <c r="L15">
+        <v>6.9</v>
+      </c>
+      <c r="M15">
+        <v>0.13486824</v>
+      </c>
+      <c r="N15">
+        <v>6.76513176</v>
+      </c>
+      <c r="O15">
+        <v>1.8942368928</v>
+      </c>
+      <c r="P15">
+        <v>4.8708948672</v>
+      </c>
+      <c r="Q15">
+        <v>6.7108948672</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.05797908843073965</v>
+      </c>
+      <c r="T15">
+        <v>1.031336619295332</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.28</v>
+      </c>
+      <c r="W15">
+        <v>0.011664</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>51.16104429033849</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.05185870522924612</v>
+      </c>
+      <c r="C16">
+        <v>55.07614974301391</v>
+      </c>
+      <c r="D16">
+        <v>0.8417497430139128</v>
+      </c>
+      <c r="E16">
+        <v>8.8256</v>
+      </c>
+      <c r="F16">
+        <v>8.9656</v>
+      </c>
+      <c r="G16">
+        <v>63.2</v>
+      </c>
+      <c r="H16">
+        <v>63.9</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>8.74</v>
+      </c>
+      <c r="K16">
+        <v>1.84</v>
+      </c>
+      <c r="L16">
+        <v>6.9</v>
+      </c>
+      <c r="M16">
+        <v>0.14524272</v>
+      </c>
+      <c r="N16">
+        <v>6.754757280000001</v>
+      </c>
+      <c r="O16">
+        <v>1.8913320384</v>
+      </c>
+      <c r="P16">
+        <v>4.8634252416</v>
+      </c>
+      <c r="Q16">
+        <v>6.7034252416</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.05840202933633269</v>
+      </c>
+      <c r="T16">
+        <v>1.040297231701964</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.28</v>
+      </c>
+      <c r="W16">
+        <v>0.011664</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>47.50668398388574</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.05175928352374872</v>
+      </c>
+      <c r="C17">
+        <v>54.43587655384032</v>
+      </c>
+      <c r="D17">
+        <v>0.8418765538403108</v>
+      </c>
+      <c r="E17">
+        <v>9.465999999999998</v>
+      </c>
+      <c r="F17">
+        <v>9.605999999999998</v>
+      </c>
+      <c r="G17">
+        <v>63.2</v>
+      </c>
+      <c r="H17">
+        <v>63.9</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>8.74</v>
+      </c>
+      <c r="K17">
+        <v>1.84</v>
+      </c>
+      <c r="L17">
+        <v>6.9</v>
+      </c>
+      <c r="M17">
+        <v>0.1556172</v>
+      </c>
+      <c r="N17">
+        <v>6.7443828</v>
+      </c>
+      <c r="O17">
+        <v>1.888427184</v>
+      </c>
+      <c r="P17">
+        <v>4.855955616</v>
+      </c>
+      <c r="Q17">
+        <v>6.695955616</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.05883492179264556</v>
+      </c>
+      <c r="T17">
+        <v>1.049468682047575</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.28</v>
+      </c>
+      <c r="W17">
+        <v>0.011664</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>44.33957171829336</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.05165986181825134</v>
+      </c>
+      <c r="C18">
+        <v>53.79560340288094</v>
+      </c>
+      <c r="D18">
+        <v>0.8420034028809379</v>
+      </c>
+      <c r="E18">
+        <v>10.1064</v>
+      </c>
+      <c r="F18">
+        <v>10.2464</v>
+      </c>
+      <c r="G18">
+        <v>63.2</v>
+      </c>
+      <c r="H18">
+        <v>63.9</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>8.74</v>
+      </c>
+      <c r="K18">
+        <v>1.84</v>
+      </c>
+      <c r="L18">
+        <v>6.9</v>
+      </c>
+      <c r="M18">
+        <v>0.16599168</v>
+      </c>
+      <c r="N18">
+        <v>6.73400832</v>
+      </c>
+      <c r="O18">
+        <v>1.8855223296</v>
+      </c>
+      <c r="P18">
+        <v>4.8484859904</v>
+      </c>
+      <c r="Q18">
+        <v>6.6884859904</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.05927812121220398</v>
+      </c>
+      <c r="T18">
+        <v>1.058858500258559</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.28</v>
+      </c>
+      <c r="W18">
+        <v>0.011664</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>41.56834848590002</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.05156044011275394</v>
+      </c>
+      <c r="C19">
+        <v>53.15533029015307</v>
+      </c>
+      <c r="D19">
+        <v>0.8421302901530701</v>
+      </c>
+      <c r="E19">
+        <v>10.7468</v>
+      </c>
+      <c r="F19">
+        <v>10.8868</v>
+      </c>
+      <c r="G19">
+        <v>63.2</v>
+      </c>
+      <c r="H19">
+        <v>63.9</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>8.74</v>
+      </c>
+      <c r="K19">
+        <v>1.84</v>
+      </c>
+      <c r="L19">
+        <v>6.9</v>
+      </c>
+      <c r="M19">
+        <v>0.17636616</v>
+      </c>
+      <c r="N19">
+        <v>6.723633840000001</v>
+      </c>
+      <c r="O19">
+        <v>1.8826174752</v>
+      </c>
+      <c r="P19">
+        <v>4.8410163648</v>
+      </c>
+      <c r="Q19">
+        <v>6.6810163648</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.05973200013584813</v>
+      </c>
+      <c r="T19">
+        <v>1.068474579149325</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.28</v>
+      </c>
+      <c r="W19">
+        <v>0.011664</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>39.1231515161412</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.05146101840725657</v>
+      </c>
+      <c r="C20">
+        <v>52.515057215674</v>
+      </c>
+      <c r="D20">
+        <v>0.8422572156739941</v>
+      </c>
+      <c r="E20">
+        <v>11.3872</v>
+      </c>
+      <c r="F20">
+        <v>11.5272</v>
+      </c>
+      <c r="G20">
+        <v>63.2</v>
+      </c>
+      <c r="H20">
+        <v>63.9</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>8.74</v>
+      </c>
+      <c r="K20">
+        <v>1.84</v>
+      </c>
+      <c r="L20">
+        <v>6.9</v>
+      </c>
+      <c r="M20">
+        <v>0.18674064</v>
+      </c>
+      <c r="N20">
+        <v>6.71325936</v>
+      </c>
+      <c r="O20">
+        <v>1.8797126208</v>
+      </c>
+      <c r="P20">
+        <v>4.8335467392</v>
+      </c>
+      <c r="Q20">
+        <v>6.6735467392</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.06019694927714216</v>
+      </c>
+      <c r="T20">
+        <v>1.078325196549622</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.28</v>
+      </c>
+      <c r="W20">
+        <v>0.011664</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>36.9496430985778</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.05136159670175919</v>
+      </c>
+      <c r="C21">
+        <v>51.87478417946101</v>
+      </c>
+      <c r="D21">
+        <v>0.8423841794610073</v>
+      </c>
+      <c r="E21">
+        <v>12.0276</v>
+      </c>
+      <c r="F21">
+        <v>12.1676</v>
+      </c>
+      <c r="G21">
+        <v>63.2</v>
+      </c>
+      <c r="H21">
+        <v>63.9</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>8.74</v>
+      </c>
+      <c r="K21">
+        <v>1.84</v>
+      </c>
+      <c r="L21">
+        <v>6.9</v>
+      </c>
+      <c r="M21">
+        <v>0.19711512</v>
+      </c>
+      <c r="N21">
+        <v>6.70288488</v>
+      </c>
+      <c r="O21">
+        <v>1.8768077664</v>
+      </c>
+      <c r="P21">
+        <v>4.8260771136</v>
+      </c>
+      <c r="Q21">
+        <v>6.6660771136</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.06067337864414714</v>
+      </c>
+      <c r="T21">
+        <v>1.088419039070914</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.28</v>
+      </c>
+      <c r="W21">
+        <v>0.011664</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>35.00492504075791</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.0512621749962618</v>
+      </c>
+      <c r="C22">
+        <v>51.23451118153142</v>
+      </c>
+      <c r="D22">
+        <v>0.8425111815314171</v>
+      </c>
+      <c r="E22">
+        <v>12.668</v>
+      </c>
+      <c r="F22">
+        <v>12.808</v>
+      </c>
+      <c r="G22">
+        <v>63.2</v>
+      </c>
+      <c r="H22">
+        <v>63.9</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>8.74</v>
+      </c>
+      <c r="K22">
+        <v>1.84</v>
+      </c>
+      <c r="L22">
+        <v>6.9</v>
+      </c>
+      <c r="M22">
+        <v>0.2074896</v>
+      </c>
+      <c r="N22">
+        <v>6.692510400000001</v>
+      </c>
+      <c r="O22">
+        <v>1.873902912</v>
+      </c>
+      <c r="P22">
+        <v>4.818607488</v>
+      </c>
+      <c r="Q22">
+        <v>6.658607488</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.06116171874532725</v>
+      </c>
+      <c r="T22">
+        <v>1.098765227655238</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.28</v>
+      </c>
+      <c r="W22">
+        <v>0.011664</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>33.25467878872001</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.0511627532907644</v>
+      </c>
+      <c r="C23">
+        <v>50.59423822190255</v>
+      </c>
+      <c r="D23">
+        <v>0.8426382219025415</v>
+      </c>
+      <c r="E23">
+        <v>13.3084</v>
+      </c>
+      <c r="F23">
+        <v>13.4484</v>
+      </c>
+      <c r="G23">
+        <v>63.2</v>
+      </c>
+      <c r="H23">
+        <v>63.9</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>8.74</v>
+      </c>
+      <c r="K23">
+        <v>1.84</v>
+      </c>
+      <c r="L23">
+        <v>6.9</v>
+      </c>
+      <c r="M23">
+        <v>0.21786408</v>
+      </c>
+      <c r="N23">
+        <v>6.68213592</v>
+      </c>
+      <c r="O23">
+        <v>1.8709980576</v>
+      </c>
+      <c r="P23">
+        <v>4.8111378624</v>
+      </c>
+      <c r="Q23">
+        <v>6.6511378624</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.06166242188704354</v>
+      </c>
+      <c r="T23">
+        <v>1.109373345064482</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.28</v>
+      </c>
+      <c r="W23">
+        <v>0.011664</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>31.67112265592383</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.05106333158526702</v>
+      </c>
+      <c r="C24">
+        <v>49.95396530059171</v>
+      </c>
+      <c r="D24">
+        <v>0.8427653005917088</v>
+      </c>
+      <c r="E24">
+        <v>13.9488</v>
+      </c>
+      <c r="F24">
+        <v>14.0888</v>
+      </c>
+      <c r="G24">
+        <v>63.2</v>
+      </c>
+      <c r="H24">
+        <v>63.9</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>8.74</v>
+      </c>
+      <c r="K24">
+        <v>1.84</v>
+      </c>
+      <c r="L24">
+        <v>6.9</v>
+      </c>
+      <c r="M24">
+        <v>0.22823856</v>
+      </c>
+      <c r="N24">
+        <v>6.67176144</v>
+      </c>
+      <c r="O24">
+        <v>1.8680932032</v>
+      </c>
+      <c r="P24">
+        <v>4.8036682368</v>
+      </c>
+      <c r="Q24">
+        <v>6.6436682368</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.06217596357085516</v>
+      </c>
+      <c r="T24">
+        <v>1.12025346548422</v>
+      </c>
+      <c r="U24">
+        <v>0.0162</v>
+      </c>
+      <c r="V24">
+        <v>0.28</v>
+      </c>
+      <c r="W24">
+        <v>0.011664</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>30.23152617156365</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.05096390987976963</v>
+      </c>
+      <c r="C25">
+        <v>49.31369241761626</v>
+      </c>
+      <c r="D25">
+        <v>0.8428924176162582</v>
+      </c>
+      <c r="E25">
+        <v>14.5892</v>
+      </c>
+      <c r="F25">
+        <v>14.7292</v>
+      </c>
+      <c r="G25">
+        <v>63.2</v>
+      </c>
+      <c r="H25">
+        <v>63.9</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>8.74</v>
+      </c>
+      <c r="K25">
+        <v>1.84</v>
+      </c>
+      <c r="L25">
+        <v>6.9</v>
+      </c>
+      <c r="M25">
+        <v>0.23861304</v>
+      </c>
+      <c r="N25">
+        <v>6.661386960000001</v>
+      </c>
+      <c r="O25">
+        <v>1.8651883488</v>
+      </c>
+      <c r="P25">
+        <v>4.7961986112</v>
+      </c>
+      <c r="Q25">
+        <v>6.6361986112</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.06270284399970082</v>
+      </c>
+      <c r="T25">
+        <v>1.131416186434339</v>
+      </c>
+      <c r="U25">
+        <v>0.0162</v>
+      </c>
+      <c r="V25">
+        <v>0.28</v>
+      </c>
+      <c r="W25">
+        <v>0.011664</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>28.91711199019132</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.05086448817427226</v>
+      </c>
+      <c r="C26">
+        <v>48.67341957299355</v>
+      </c>
+      <c r="D26">
+        <v>0.8430195729935388</v>
+      </c>
+      <c r="E26">
+        <v>15.2296</v>
+      </c>
+      <c r="F26">
+        <v>15.3696</v>
+      </c>
+      <c r="G26">
+        <v>63.2</v>
+      </c>
+      <c r="H26">
+        <v>63.9</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>8.74</v>
+      </c>
+      <c r="K26">
+        <v>1.84</v>
+      </c>
+      <c r="L26">
+        <v>6.9</v>
+      </c>
+      <c r="M26">
+        <v>0.24898752</v>
+      </c>
+      <c r="N26">
+        <v>6.65101248</v>
+      </c>
+      <c r="O26">
+        <v>1.8622834944</v>
+      </c>
+      <c r="P26">
+        <v>4.788728985600001</v>
+      </c>
+      <c r="Q26">
+        <v>6.6287289856</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.06324358970298981</v>
+      </c>
+      <c r="T26">
+        <v>1.142872663198937</v>
+      </c>
+      <c r="U26">
+        <v>0.0162</v>
+      </c>
+      <c r="V26">
+        <v>0.28</v>
+      </c>
+      <c r="W26">
+        <v>0.011664</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>27.71223232393335</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.05076506646877486</v>
+      </c>
+      <c r="C27">
+        <v>48.03314676674092</v>
+      </c>
+      <c r="D27">
+        <v>0.8431467667409108</v>
+      </c>
+      <c r="E27">
+        <v>15.87</v>
+      </c>
+      <c r="F27">
+        <v>16.01</v>
+      </c>
+      <c r="G27">
+        <v>63.2</v>
+      </c>
+      <c r="H27">
+        <v>63.9</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>8.74</v>
+      </c>
+      <c r="K27">
+        <v>1.84</v>
+      </c>
+      <c r="L27">
+        <v>6.9</v>
+      </c>
+      <c r="M27">
+        <v>0.259362</v>
+      </c>
+      <c r="N27">
+        <v>6.640638</v>
+      </c>
+      <c r="O27">
+        <v>1.85937864</v>
+      </c>
+      <c r="P27">
+        <v>4.78125936</v>
+      </c>
+      <c r="Q27">
+        <v>6.62125936</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.06379875529169982</v>
+      </c>
+      <c r="T27">
+        <v>1.154634646010589</v>
+      </c>
+      <c r="U27">
+        <v>0.0162</v>
+      </c>
+      <c r="V27">
+        <v>0.28</v>
+      </c>
+      <c r="W27">
+        <v>0.011664</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>26.60374303097601</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.05066564476327748</v>
+      </c>
+      <c r="C28">
+        <v>47.39287399887575</v>
+      </c>
+      <c r="D28">
+        <v>0.8432739988757443</v>
+      </c>
+      <c r="E28">
+        <v>16.5104</v>
+      </c>
+      <c r="F28">
+        <v>16.6504</v>
+      </c>
+      <c r="G28">
+        <v>63.2</v>
+      </c>
+      <c r="H28">
+        <v>63.9</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>8.74</v>
+      </c>
+      <c r="K28">
+        <v>1.84</v>
+      </c>
+      <c r="L28">
+        <v>6.9</v>
+      </c>
+      <c r="M28">
+        <v>0.2697364799999999</v>
+      </c>
+      <c r="N28">
+        <v>6.630263520000001</v>
+      </c>
+      <c r="O28">
+        <v>1.8564737856</v>
+      </c>
+      <c r="P28">
+        <v>4.7737897344</v>
+      </c>
+      <c r="Q28">
+        <v>6.6137897344</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.06436892535578038</v>
+      </c>
+      <c r="T28">
+        <v>1.166714520249584</v>
+      </c>
+      <c r="U28">
+        <v>0.0162</v>
+      </c>
+      <c r="V28">
+        <v>0.28</v>
+      </c>
+      <c r="W28">
+        <v>0.011664</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>25.58052214516925</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.05056622305778009</v>
+      </c>
+      <c r="C29">
+        <v>46.75260126941543</v>
+      </c>
+      <c r="D29">
+        <v>0.8434012694154198</v>
+      </c>
+      <c r="E29">
+        <v>17.1508</v>
+      </c>
+      <c r="F29">
+        <v>17.2908</v>
+      </c>
+      <c r="G29">
+        <v>63.2</v>
+      </c>
+      <c r="H29">
+        <v>63.9</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>8.74</v>
+      </c>
+      <c r="K29">
+        <v>1.84</v>
+      </c>
+      <c r="L29">
+        <v>6.9</v>
+      </c>
+      <c r="M29">
+        <v>0.28011096</v>
+      </c>
+      <c r="N29">
+        <v>6.61988904</v>
+      </c>
+      <c r="O29">
+        <v>1.8535689312</v>
+      </c>
+      <c r="P29">
+        <v>4.7663201088</v>
+      </c>
+      <c r="Q29">
+        <v>6.6063201088</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.06495471651750698</v>
+      </c>
+      <c r="T29">
+        <v>1.179125349947182</v>
+      </c>
+      <c r="U29">
+        <v>0.0162</v>
+      </c>
+      <c r="V29">
+        <v>0.28</v>
+      </c>
+      <c r="W29">
+        <v>0.011664</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>24.63309539905186</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.05046680135228271</v>
+      </c>
+      <c r="C30">
+        <v>46.11232857837733</v>
+      </c>
+      <c r="D30">
+        <v>0.843528578377329</v>
+      </c>
+      <c r="E30">
+        <v>17.7912</v>
+      </c>
+      <c r="F30">
+        <v>17.9312</v>
+      </c>
+      <c r="G30">
+        <v>63.2</v>
+      </c>
+      <c r="H30">
+        <v>63.9</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>8.74</v>
+      </c>
+      <c r="K30">
+        <v>1.84</v>
+      </c>
+      <c r="L30">
+        <v>6.9</v>
+      </c>
+      <c r="M30">
+        <v>0.29048544</v>
+      </c>
+      <c r="N30">
+        <v>6.60951456</v>
+      </c>
+      <c r="O30">
+        <v>1.8506640768</v>
+      </c>
+      <c r="P30">
+        <v>4.7588504832</v>
+      </c>
+      <c r="Q30">
+        <v>6.5988504832</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.06555677965594821</v>
+      </c>
+      <c r="T30">
+        <v>1.191880924914157</v>
+      </c>
+      <c r="U30">
+        <v>0.0162</v>
+      </c>
+      <c r="V30">
+        <v>0.28</v>
+      </c>
+      <c r="W30">
+        <v>0.011664</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>23.75334199194287</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.05036737964678531</v>
+      </c>
+      <c r="C31">
+        <v>45.47205592577888</v>
+      </c>
+      <c r="D31">
+        <v>0.8436559257788736</v>
+      </c>
+      <c r="E31">
+        <v>18.4316</v>
+      </c>
+      <c r="F31">
+        <v>18.5716</v>
+      </c>
+      <c r="G31">
+        <v>63.2</v>
+      </c>
+      <c r="H31">
+        <v>63.9</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>8.74</v>
+      </c>
+      <c r="K31">
+        <v>1.84</v>
+      </c>
+      <c r="L31">
+        <v>6.9</v>
+      </c>
+      <c r="M31">
+        <v>0.3008599199999999</v>
+      </c>
+      <c r="N31">
+        <v>6.599140080000001</v>
+      </c>
+      <c r="O31">
+        <v>1.8477592224</v>
+      </c>
+      <c r="P31">
+        <v>4.7513808576</v>
+      </c>
+      <c r="Q31">
+        <v>6.5913808576</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.06617580231941593</v>
+      </c>
+      <c r="T31">
+        <v>1.204995811852033</v>
+      </c>
+      <c r="U31">
+        <v>0.0162</v>
+      </c>
+      <c r="V31">
+        <v>0.28</v>
+      </c>
+      <c r="W31">
+        <v>0.011664</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>22.93426123360002</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.05026795794128792</v>
+      </c>
+      <c r="C32">
+        <v>44.83178331163747</v>
+      </c>
+      <c r="D32">
+        <v>0.8437833116374659</v>
+      </c>
+      <c r="E32">
+        <v>19.072</v>
+      </c>
+      <c r="F32">
+        <v>19.212</v>
+      </c>
+      <c r="G32">
+        <v>63.2</v>
+      </c>
+      <c r="H32">
+        <v>63.9</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>8.74</v>
+      </c>
+      <c r="K32">
+        <v>1.84</v>
+      </c>
+      <c r="L32">
+        <v>6.9</v>
+      </c>
+      <c r="M32">
+        <v>0.3112343999999999</v>
+      </c>
+      <c r="N32">
+        <v>6.5887656</v>
+      </c>
+      <c r="O32">
+        <v>1.844854368</v>
+      </c>
+      <c r="P32">
+        <v>4.743911232</v>
+      </c>
+      <c r="Q32">
+        <v>6.583911232</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.06681251134469704</v>
+      </c>
+      <c r="T32">
+        <v>1.218485409845276</v>
+      </c>
+      <c r="U32">
+        <v>0.0162</v>
+      </c>
+      <c r="V32">
+        <v>0.28</v>
+      </c>
+      <c r="W32">
+        <v>0.011664</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>22.16978585914668</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.05016853623579054</v>
+      </c>
+      <c r="C33">
+        <v>44.19151073597053</v>
+      </c>
+      <c r="D33">
+        <v>0.8439107359705287</v>
+      </c>
+      <c r="E33">
+        <v>19.7124</v>
+      </c>
+      <c r="F33">
+        <v>19.8524</v>
+      </c>
+      <c r="G33">
+        <v>63.2</v>
+      </c>
+      <c r="H33">
+        <v>63.9</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>8.74</v>
+      </c>
+      <c r="K33">
+        <v>1.84</v>
+      </c>
+      <c r="L33">
+        <v>6.9</v>
+      </c>
+      <c r="M33">
+        <v>0.3216088799999999</v>
+      </c>
+      <c r="N33">
+        <v>6.57839112</v>
+      </c>
+      <c r="O33">
+        <v>1.8419495136</v>
+      </c>
+      <c r="P33">
+        <v>4.7364416064</v>
+      </c>
+      <c r="Q33">
+        <v>6.5764416064</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.06746767570404426</v>
+      </c>
+      <c r="T33">
+        <v>1.232366010678904</v>
+      </c>
+      <c r="U33">
+        <v>0.0162</v>
+      </c>
+      <c r="V33">
+        <v>0.28</v>
+      </c>
+      <c r="W33">
+        <v>0.011664</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>21.45463147659356</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.05006911453029315</v>
+      </c>
+      <c r="C34">
+        <v>43.5512381987955</v>
+      </c>
+      <c r="D34">
+        <v>0.8440381987954954</v>
+      </c>
+      <c r="E34">
+        <v>20.3528</v>
+      </c>
+      <c r="F34">
+        <v>20.4928</v>
+      </c>
+      <c r="G34">
+        <v>63.2</v>
+      </c>
+      <c r="H34">
+        <v>63.9</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>8.74</v>
+      </c>
+      <c r="K34">
+        <v>1.84</v>
+      </c>
+      <c r="L34">
+        <v>6.9</v>
+      </c>
+      <c r="M34">
+        <v>0.3319833599999999</v>
+      </c>
+      <c r="N34">
+        <v>6.568016640000001</v>
+      </c>
+      <c r="O34">
+        <v>1.8390446592</v>
+      </c>
+      <c r="P34">
+        <v>4.728971980800001</v>
+      </c>
+      <c r="Q34">
+        <v>6.568971980800001</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.06814210960337229</v>
+      </c>
+      <c r="T34">
+        <v>1.246654864478226</v>
+      </c>
+      <c r="U34">
+        <v>0.0162</v>
+      </c>
+      <c r="V34">
+        <v>0.28</v>
+      </c>
+      <c r="W34">
+        <v>0.011664</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>20.78417424295001</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.04996969282479576</v>
+      </c>
+      <c r="C35">
+        <v>42.91096570012981</v>
+      </c>
+      <c r="D35">
+        <v>0.8441657001298097</v>
+      </c>
+      <c r="E35">
+        <v>20.9932</v>
+      </c>
+      <c r="F35">
+        <v>21.1332</v>
+      </c>
+      <c r="G35">
+        <v>63.2</v>
+      </c>
+      <c r="H35">
+        <v>63.9</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>8.74</v>
+      </c>
+      <c r="K35">
+        <v>1.84</v>
+      </c>
+      <c r="L35">
+        <v>6.9</v>
+      </c>
+      <c r="M35">
+        <v>0.34235784</v>
+      </c>
+      <c r="N35">
+        <v>6.55764216</v>
+      </c>
+      <c r="O35">
+        <v>1.8361398048</v>
+      </c>
+      <c r="P35">
+        <v>4.7215023552</v>
+      </c>
+      <c r="Q35">
+        <v>6.5615023552</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.06883667585790414</v>
+      </c>
+      <c r="T35">
+        <v>1.261370251226783</v>
+      </c>
+      <c r="U35">
+        <v>0.0162</v>
+      </c>
+      <c r="V35">
+        <v>0.28</v>
+      </c>
+      <c r="W35">
+        <v>0.011664</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>20.15435078104244</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.04987027111929838</v>
+      </c>
+      <c r="C36">
+        <v>42.27069323999093</v>
+      </c>
+      <c r="D36">
+        <v>0.8442932399909263</v>
+      </c>
+      <c r="E36">
+        <v>21.6336</v>
+      </c>
+      <c r="F36">
+        <v>21.7736</v>
+      </c>
+      <c r="G36">
+        <v>63.2</v>
+      </c>
+      <c r="H36">
+        <v>63.9</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>8.74</v>
+      </c>
+      <c r="K36">
+        <v>1.84</v>
+      </c>
+      <c r="L36">
+        <v>6.9</v>
+      </c>
+      <c r="M36">
+        <v>0.3527323199999999</v>
+      </c>
+      <c r="N36">
+        <v>6.54726768</v>
+      </c>
+      <c r="O36">
+        <v>1.8332349504</v>
+      </c>
+      <c r="P36">
+        <v>4.7140327296</v>
+      </c>
+      <c r="Q36">
+        <v>6.554032729599999</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.06955228957469452</v>
+      </c>
+      <c r="T36">
+        <v>1.276531558785901</v>
+      </c>
+      <c r="U36">
+        <v>0.0162</v>
+      </c>
+      <c r="V36">
+        <v>0.28</v>
+      </c>
+      <c r="W36">
+        <v>0.011664</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>19.5615757580706</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.04977084941380099</v>
+      </c>
+      <c r="C37">
+        <v>41.63042081839632</v>
+      </c>
+      <c r="D37">
+        <v>0.8444208183963102</v>
+      </c>
+      <c r="E37">
+        <v>22.274</v>
+      </c>
+      <c r="F37">
+        <v>22.414</v>
+      </c>
+      <c r="G37">
+        <v>63.2</v>
+      </c>
+      <c r="H37">
+        <v>63.9</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>8.74</v>
+      </c>
+      <c r="K37">
+        <v>1.84</v>
+      </c>
+      <c r="L37">
+        <v>6.9</v>
+      </c>
+      <c r="M37">
+        <v>0.3631068</v>
+      </c>
+      <c r="N37">
+        <v>6.536893200000001</v>
+      </c>
+      <c r="O37">
+        <v>1.830330096</v>
+      </c>
+      <c r="P37">
+        <v>4.706563104000001</v>
+      </c>
+      <c r="Q37">
+        <v>6.546563104000001</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.07028992217507846</v>
+      </c>
+      <c r="T37">
+        <v>1.292159368116069</v>
+      </c>
+      <c r="U37">
+        <v>0.0162</v>
+      </c>
+      <c r="V37">
+        <v>0.28</v>
+      </c>
+      <c r="W37">
+        <v>0.011664</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>19.0026735935543</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.04967142770830361</v>
+      </c>
+      <c r="C38">
+        <v>40.99014843536344</v>
+      </c>
+      <c r="D38">
+        <v>0.8445484353634367</v>
+      </c>
+      <c r="E38">
+        <v>22.9144</v>
+      </c>
+      <c r="F38">
+        <v>23.0544</v>
+      </c>
+      <c r="G38">
+        <v>63.2</v>
+      </c>
+      <c r="H38">
+        <v>63.9</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>8.74</v>
+      </c>
+      <c r="K38">
+        <v>1.84</v>
+      </c>
+      <c r="L38">
+        <v>6.9</v>
+      </c>
+      <c r="M38">
+        <v>0.3734812799999999</v>
+      </c>
+      <c r="N38">
+        <v>6.52651872</v>
+      </c>
+      <c r="O38">
+        <v>1.8274252416</v>
+      </c>
+      <c r="P38">
+        <v>4.6990934784</v>
+      </c>
+      <c r="Q38">
+        <v>6.5390934784</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.07105060579422438</v>
+      </c>
+      <c r="T38">
+        <v>1.308275546487805</v>
+      </c>
+      <c r="U38">
+        <v>0.0162</v>
+      </c>
+      <c r="V38">
+        <v>0.28</v>
+      </c>
+      <c r="W38">
+        <v>0.011664</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>18.4748215492889</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.04957200600280623</v>
+      </c>
+      <c r="C39">
+        <v>40.34987609090979</v>
+      </c>
+      <c r="D39">
+        <v>0.844676090909792</v>
+      </c>
+      <c r="E39">
+        <v>23.5548</v>
+      </c>
+      <c r="F39">
+        <v>23.6948</v>
+      </c>
+      <c r="G39">
+        <v>63.2</v>
+      </c>
+      <c r="H39">
+        <v>63.9</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>8.74</v>
+      </c>
+      <c r="K39">
+        <v>1.84</v>
+      </c>
+      <c r="L39">
+        <v>6.9</v>
+      </c>
+      <c r="M39">
+        <v>0.3838557599999999</v>
+      </c>
+      <c r="N39">
+        <v>6.51614424</v>
+      </c>
+      <c r="O39">
+        <v>1.8245203872</v>
+      </c>
+      <c r="P39">
+        <v>4.691623852799999</v>
+      </c>
+      <c r="Q39">
+        <v>6.531623852799999</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.07183543809969242</v>
+      </c>
+      <c r="T39">
+        <v>1.324903349569755</v>
+      </c>
+      <c r="U39">
+        <v>0.0162</v>
+      </c>
+      <c r="V39">
+        <v>0.28</v>
+      </c>
+      <c r="W39">
+        <v>0.011664</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>17.97550204795677</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.04947258429730884</v>
+      </c>
+      <c r="C40">
+        <v>39.70960378505288</v>
+      </c>
+      <c r="D40">
+        <v>0.8448037850528727</v>
+      </c>
+      <c r="E40">
+        <v>24.1952</v>
+      </c>
+      <c r="F40">
+        <v>24.3352</v>
+      </c>
+      <c r="G40">
+        <v>63.2</v>
+      </c>
+      <c r="H40">
+        <v>63.9</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>8.74</v>
+      </c>
+      <c r="K40">
+        <v>1.84</v>
+      </c>
+      <c r="L40">
+        <v>6.9</v>
+      </c>
+      <c r="M40">
+        <v>0.39423024</v>
+      </c>
+      <c r="N40">
+        <v>6.505769760000001</v>
+      </c>
+      <c r="O40">
+        <v>1.8216155328</v>
+      </c>
+      <c r="P40">
+        <v>4.684154227200001</v>
+      </c>
+      <c r="Q40">
+        <v>6.5241542272</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.07264558757630458</v>
+      </c>
+      <c r="T40">
+        <v>1.342067533396283</v>
+      </c>
+      <c r="U40">
+        <v>0.0162</v>
+      </c>
+      <c r="V40">
+        <v>0.28</v>
+      </c>
+      <c r="W40">
+        <v>0.011664</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>17.50246252037896</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.04937316259181145</v>
+      </c>
+      <c r="C41">
+        <v>39.06933151781018</v>
+      </c>
+      <c r="D41">
+        <v>0.8449315178101863</v>
+      </c>
+      <c r="E41">
+        <v>24.8356</v>
+      </c>
+      <c r="F41">
+        <v>24.9756</v>
+      </c>
+      <c r="G41">
+        <v>63.2</v>
+      </c>
+      <c r="H41">
+        <v>63.9</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>8.74</v>
+      </c>
+      <c r="K41">
+        <v>1.84</v>
+      </c>
+      <c r="L41">
+        <v>6.9</v>
+      </c>
+      <c r="M41">
+        <v>0.4046047199999999</v>
+      </c>
+      <c r="N41">
+        <v>6.49539528</v>
+      </c>
+      <c r="O41">
+        <v>1.8187106784</v>
+      </c>
+      <c r="P41">
+        <v>4.6766846016</v>
+      </c>
+      <c r="Q41">
+        <v>6.5166846016</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.07348229933083844</v>
+      </c>
+      <c r="T41">
+        <v>1.359794477348272</v>
+      </c>
+      <c r="U41">
+        <v>0.0162</v>
+      </c>
+      <c r="V41">
+        <v>0.28</v>
+      </c>
+      <c r="W41">
+        <v>0.011664</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>17.05368143011283</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.04927374088631406</v>
+      </c>
+      <c r="C42">
+        <v>38.42905928919926</v>
+      </c>
+      <c r="D42">
+        <v>0.8450592891992503</v>
+      </c>
+      <c r="E42">
+        <v>25.476</v>
+      </c>
+      <c r="F42">
+        <v>25.616</v>
+      </c>
+      <c r="G42">
+        <v>63.2</v>
+      </c>
+      <c r="H42">
+        <v>63.9</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>8.74</v>
+      </c>
+      <c r="K42">
+        <v>1.84</v>
+      </c>
+      <c r="L42">
+        <v>6.9</v>
+      </c>
+      <c r="M42">
+        <v>0.4149792</v>
+      </c>
+      <c r="N42">
+        <v>6.4850208</v>
+      </c>
+      <c r="O42">
+        <v>1.815805824</v>
+      </c>
+      <c r="P42">
+        <v>4.669214976</v>
+      </c>
+      <c r="Q42">
+        <v>6.509214976</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.0743469014771901</v>
+      </c>
+      <c r="T42">
+        <v>1.378112319431994</v>
+      </c>
+      <c r="U42">
+        <v>0.0162</v>
+      </c>
+      <c r="V42">
+        <v>0.28</v>
+      </c>
+      <c r="W42">
+        <v>0.011664</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>16.62733939436001</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.04917431918081668</v>
+      </c>
+      <c r="C43">
+        <v>37.7887870992376</v>
+      </c>
+      <c r="D43">
+        <v>0.8451870992375935</v>
+      </c>
+      <c r="E43">
+        <v>26.1164</v>
+      </c>
+      <c r="F43">
+        <v>26.2564</v>
+      </c>
+      <c r="G43">
+        <v>63.2</v>
+      </c>
+      <c r="H43">
+        <v>63.9</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>8.74</v>
+      </c>
+      <c r="K43">
+        <v>1.84</v>
+      </c>
+      <c r="L43">
+        <v>6.9</v>
+      </c>
+      <c r="M43">
+        <v>0.42535368</v>
+      </c>
+      <c r="N43">
+        <v>6.474646320000001</v>
+      </c>
+      <c r="O43">
+        <v>1.8129009696</v>
+      </c>
+      <c r="P43">
+        <v>4.6617453504</v>
+      </c>
+      <c r="Q43">
+        <v>6.5017453504</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.07524081217087573</v>
+      </c>
+      <c r="T43">
+        <v>1.397051105315164</v>
+      </c>
+      <c r="U43">
+        <v>0.0162</v>
+      </c>
+      <c r="V43">
+        <v>0.28</v>
+      </c>
+      <c r="W43">
+        <v>0.011664</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>16.22179453108294</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.0490748974753193</v>
+      </c>
+      <c r="C44">
+        <v>37.14851494794276</v>
+      </c>
+      <c r="D44">
+        <v>0.8453149479427546</v>
+      </c>
+      <c r="E44">
+        <v>26.75679999999999</v>
+      </c>
+      <c r="F44">
+        <v>26.8968</v>
+      </c>
+      <c r="G44">
+        <v>63.2</v>
+      </c>
+      <c r="H44">
+        <v>63.9</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>8.74</v>
+      </c>
+      <c r="K44">
+        <v>1.84</v>
+      </c>
+      <c r="L44">
+        <v>6.9</v>
+      </c>
+      <c r="M44">
+        <v>0.4357281599999999</v>
+      </c>
+      <c r="N44">
+        <v>6.46427184</v>
+      </c>
+      <c r="O44">
+        <v>1.8099961152</v>
+      </c>
+      <c r="P44">
+        <v>4.6542757248</v>
+      </c>
+      <c r="Q44">
+        <v>6.4942757248</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.07616554737124016</v>
+      </c>
+      <c r="T44">
+        <v>1.416642952780512</v>
+      </c>
+      <c r="U44">
+        <v>0.0162</v>
+      </c>
+      <c r="V44">
+        <v>0.28</v>
+      </c>
+      <c r="W44">
+        <v>0.011664</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>15.83556132796191</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.04897547576982191</v>
+      </c>
+      <c r="C45">
+        <v>36.50824283533228</v>
+      </c>
+      <c r="D45">
+        <v>0.8454428353322836</v>
+      </c>
+      <c r="E45">
+        <v>27.39719999999999</v>
+      </c>
+      <c r="F45">
+        <v>27.5372</v>
+      </c>
+      <c r="G45">
+        <v>63.2</v>
+      </c>
+      <c r="H45">
+        <v>63.9</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>8.74</v>
+      </c>
+      <c r="K45">
+        <v>1.84</v>
+      </c>
+      <c r="L45">
+        <v>6.9</v>
+      </c>
+      <c r="M45">
+        <v>0.4461026399999999</v>
+      </c>
+      <c r="N45">
+        <v>6.453897360000001</v>
+      </c>
+      <c r="O45">
+        <v>1.8070912608</v>
+      </c>
+      <c r="P45">
+        <v>4.646806099200001</v>
+      </c>
+      <c r="Q45">
+        <v>6.486806099200001</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.07712272942074018</v>
+      </c>
+      <c r="T45">
+        <v>1.436922233490258</v>
+      </c>
+      <c r="U45">
+        <v>0.0162</v>
+      </c>
+      <c r="V45">
+        <v>0.28</v>
+      </c>
+      <c r="W45">
+        <v>0.011664</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>15.46729245986978</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.04887605406432453</v>
+      </c>
+      <c r="C46">
+        <v>35.86797076142375</v>
+      </c>
+      <c r="D46">
+        <v>0.8455707614237408</v>
+      </c>
+      <c r="E46">
+        <v>28.0376</v>
+      </c>
+      <c r="F46">
+        <v>28.1776</v>
+      </c>
+      <c r="G46">
+        <v>63.2</v>
+      </c>
+      <c r="H46">
+        <v>63.9</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>8.74</v>
+      </c>
+      <c r="K46">
+        <v>1.84</v>
+      </c>
+      <c r="L46">
+        <v>6.9</v>
+      </c>
+      <c r="M46">
+        <v>0.45647712</v>
+      </c>
+      <c r="N46">
+        <v>6.443522880000001</v>
+      </c>
+      <c r="O46">
+        <v>1.8041864064</v>
+      </c>
+      <c r="P46">
+        <v>4.6393364736</v>
+      </c>
+      <c r="Q46">
+        <v>6.4793364736</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.07811409654343665</v>
+      </c>
+      <c r="T46">
+        <v>1.457925774225353</v>
+      </c>
+      <c r="U46">
+        <v>0.0162</v>
+      </c>
+      <c r="V46">
+        <v>0.28</v>
+      </c>
+      <c r="W46">
+        <v>0.011664</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>15.11576308578183</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.04877663235882713</v>
+      </c>
+      <c r="C47">
+        <v>35.22769872623471</v>
+      </c>
+      <c r="D47">
+        <v>0.8456987262346967</v>
+      </c>
+      <c r="E47">
+        <v>28.678</v>
+      </c>
+      <c r="F47">
+        <v>28.818</v>
+      </c>
+      <c r="G47">
+        <v>63.2</v>
+      </c>
+      <c r="H47">
+        <v>63.9</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>8.74</v>
+      </c>
+      <c r="K47">
+        <v>1.84</v>
+      </c>
+      <c r="L47">
+        <v>6.9</v>
+      </c>
+      <c r="M47">
+        <v>0.4668515999999999</v>
+      </c>
+      <c r="N47">
+        <v>6.4331484</v>
+      </c>
+      <c r="O47">
+        <v>1.801281552</v>
+      </c>
+      <c r="P47">
+        <v>4.631866848</v>
+      </c>
+      <c r="Q47">
+        <v>6.471866847999999</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.07914151337968568</v>
+      </c>
+      <c r="T47">
+        <v>1.479693080078087</v>
+      </c>
+      <c r="U47">
+        <v>0.0162</v>
+      </c>
+      <c r="V47">
+        <v>0.28</v>
+      </c>
+      <c r="W47">
+        <v>0.011664</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>14.77985723943112</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.04867721065332974</v>
+      </c>
+      <c r="C48">
+        <v>34.58742672978273</v>
+      </c>
+      <c r="D48">
+        <v>0.8458267297827331</v>
+      </c>
+      <c r="E48">
+        <v>29.3184</v>
+      </c>
+      <c r="F48">
+        <v>29.4584</v>
+      </c>
+      <c r="G48">
+        <v>63.2</v>
+      </c>
+      <c r="H48">
+        <v>63.9</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>8.74</v>
+      </c>
+      <c r="K48">
+        <v>1.84</v>
+      </c>
+      <c r="L48">
+        <v>6.9</v>
+      </c>
+      <c r="M48">
+        <v>0.4772260799999999</v>
+      </c>
+      <c r="N48">
+        <v>6.42277392</v>
+      </c>
+      <c r="O48">
+        <v>1.7983766976</v>
+      </c>
+      <c r="P48">
+        <v>4.6243972224</v>
+      </c>
+      <c r="Q48">
+        <v>6.4643972224</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.08020698269135138</v>
+      </c>
+      <c r="T48">
+        <v>1.502266582443885</v>
+      </c>
+      <c r="U48">
+        <v>0.0162</v>
+      </c>
+      <c r="V48">
+        <v>0.28</v>
+      </c>
+      <c r="W48">
+        <v>0.011664</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>14.45855599509566</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.04857778894783236</v>
+      </c>
+      <c r="C49">
+        <v>33.94715477208545</v>
+      </c>
+      <c r="D49">
+        <v>0.8459547720854425</v>
+      </c>
+      <c r="E49">
+        <v>29.9588</v>
+      </c>
+      <c r="F49">
+        <v>30.0988</v>
+      </c>
+      <c r="G49">
+        <v>63.2</v>
+      </c>
+      <c r="H49">
+        <v>63.9</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>8.74</v>
+      </c>
+      <c r="K49">
+        <v>1.84</v>
+      </c>
+      <c r="L49">
+        <v>6.9</v>
+      </c>
+      <c r="M49">
+        <v>0.4876005599999999</v>
+      </c>
+      <c r="N49">
+        <v>6.412399440000001</v>
+      </c>
+      <c r="O49">
+        <v>1.7954718432</v>
+      </c>
+      <c r="P49">
+        <v>4.6169275968</v>
+      </c>
+      <c r="Q49">
+        <v>6.4569275968</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.08131265839213651</v>
+      </c>
+      <c r="T49">
+        <v>1.525691915087638</v>
+      </c>
+      <c r="U49">
+        <v>0.0162</v>
+      </c>
+      <c r="V49">
+        <v>0.28</v>
+      </c>
+      <c r="W49">
+        <v>0.011664</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>14.15092714413618</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.04847836724233497</v>
+      </c>
+      <c r="C50">
+        <v>33.30688285316043</v>
+      </c>
+      <c r="D50">
+        <v>0.8460828531604272</v>
+      </c>
+      <c r="E50">
+        <v>30.5992</v>
+      </c>
+      <c r="F50">
+        <v>30.7392</v>
+      </c>
+      <c r="G50">
+        <v>63.2</v>
+      </c>
+      <c r="H50">
+        <v>63.9</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>8.74</v>
+      </c>
+      <c r="K50">
+        <v>1.84</v>
+      </c>
+      <c r="L50">
+        <v>6.9</v>
+      </c>
+      <c r="M50">
+        <v>0.4979750399999999</v>
+      </c>
+      <c r="N50">
+        <v>6.40202496</v>
+      </c>
+      <c r="O50">
+        <v>1.7925669888</v>
+      </c>
+      <c r="P50">
+        <v>4.6094579712</v>
+      </c>
+      <c r="Q50">
+        <v>6.4494579712</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.08246086008141339</v>
+      </c>
+      <c r="T50">
+        <v>1.550018222063843</v>
+      </c>
+      <c r="U50">
+        <v>0.0162</v>
+      </c>
+      <c r="V50">
+        <v>0.28</v>
+      </c>
+      <c r="W50">
+        <v>0.011664</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>13.85611616196667</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.04894342553683759</v>
+      </c>
+      <c r="C51">
+        <v>32.66588407019808</v>
+      </c>
+      <c r="D51">
+        <v>0.8454840701980623</v>
+      </c>
+      <c r="E51">
+        <v>31.2396</v>
+      </c>
+      <c r="F51">
+        <v>31.3796</v>
+      </c>
+      <c r="G51">
+        <v>63.2</v>
+      </c>
+      <c r="H51">
+        <v>63.9</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>8.74</v>
+      </c>
+      <c r="K51">
+        <v>1.84</v>
+      </c>
+      <c r="L51">
+        <v>6.9</v>
+      </c>
+      <c r="M51">
+        <v>0.5585568799999999</v>
+      </c>
+      <c r="N51">
+        <v>6.34144312</v>
+      </c>
+      <c r="O51">
+        <v>1.7756040736</v>
+      </c>
+      <c r="P51">
+        <v>4.5658390464</v>
+      </c>
+      <c r="Q51">
+        <v>6.4058390464</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.08365408928791683</v>
+      </c>
+      <c r="T51">
+        <v>1.575298501862645</v>
+      </c>
+      <c r="U51">
+        <v>0.0178</v>
+      </c>
+      <c r="V51">
+        <v>0.28</v>
+      </c>
+      <c r="W51">
+        <v>0.012816</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>12.35326292999918</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.04885552383134019</v>
+      </c>
+      <c r="C52">
+        <v>32.02559718253497</v>
+      </c>
+      <c r="D52">
+        <v>0.8455971825349656</v>
+      </c>
+      <c r="E52">
+        <v>31.88</v>
+      </c>
+      <c r="F52">
+        <v>32.02</v>
+      </c>
+      <c r="G52">
+        <v>63.2</v>
+      </c>
+      <c r="H52">
+        <v>63.9</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>8.74</v>
+      </c>
+      <c r="K52">
+        <v>1.84</v>
+      </c>
+      <c r="L52">
+        <v>6.9</v>
+      </c>
+      <c r="M52">
+        <v>0.5699559999999999</v>
+      </c>
+      <c r="N52">
+        <v>6.330044000000001</v>
+      </c>
+      <c r="O52">
+        <v>1.77241232</v>
+      </c>
+      <c r="P52">
+        <v>4.55763168</v>
+      </c>
+      <c r="Q52">
+        <v>6.39763168</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.08489504766268038</v>
+      </c>
+      <c r="T52">
+        <v>1.601589992853398</v>
+      </c>
+      <c r="U52">
+        <v>0.0178</v>
+      </c>
+      <c r="V52">
+        <v>0.28</v>
+      </c>
+      <c r="W52">
+        <v>0.012816</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>12.1061976713992</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.04876762212584281</v>
+      </c>
+      <c r="C53">
+        <v>31.38531032514119</v>
+      </c>
+      <c r="D53">
+        <v>0.8457103251411858</v>
+      </c>
+      <c r="E53">
+        <v>32.5204</v>
+      </c>
+      <c r="F53">
+        <v>32.6604</v>
+      </c>
+      <c r="G53">
+        <v>63.2</v>
+      </c>
+      <c r="H53">
+        <v>63.9</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>8.74</v>
+      </c>
+      <c r="K53">
+        <v>1.84</v>
+      </c>
+      <c r="L53">
+        <v>6.9</v>
+      </c>
+      <c r="M53">
+        <v>0.5813551199999999</v>
+      </c>
+      <c r="N53">
+        <v>6.318644880000001</v>
+      </c>
+      <c r="O53">
+        <v>1.7692205664</v>
+      </c>
+      <c r="P53">
+        <v>4.5494243136</v>
+      </c>
+      <c r="Q53">
+        <v>6.3894243136</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.08618665739967921</v>
+      </c>
+      <c r="T53">
+        <v>1.628954605925407</v>
+      </c>
+      <c r="U53">
+        <v>0.0178</v>
+      </c>
+      <c r="V53">
+        <v>0.28</v>
+      </c>
+      <c r="W53">
+        <v>0.012816</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>11.8688212464698</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.04867972042034542</v>
+      </c>
+      <c r="C54">
+        <v>30.74502349802889</v>
+      </c>
+      <c r="D54">
+        <v>0.845823498028875</v>
+      </c>
+      <c r="E54">
+        <v>33.16079999999999</v>
+      </c>
+      <c r="F54">
+        <v>33.3008</v>
+      </c>
+      <c r="G54">
+        <v>63.2</v>
+      </c>
+      <c r="H54">
+        <v>63.9</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>8.74</v>
+      </c>
+      <c r="K54">
+        <v>1.84</v>
+      </c>
+      <c r="L54">
+        <v>6.9</v>
+      </c>
+      <c r="M54">
+        <v>0.5927542399999999</v>
+      </c>
+      <c r="N54">
+        <v>6.307245760000001</v>
+      </c>
+      <c r="O54">
+        <v>1.7660288128</v>
+      </c>
+      <c r="P54">
+        <v>4.541216947200001</v>
+      </c>
+      <c r="Q54">
+        <v>6.3812169472</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.08753208420905297</v>
+      </c>
+      <c r="T54">
+        <v>1.657459411208749</v>
+      </c>
+      <c r="U54">
+        <v>0.0178</v>
+      </c>
+      <c r="V54">
+        <v>0.28</v>
+      </c>
+      <c r="W54">
+        <v>0.012816</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>11.64057468403769</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.04859181871484804</v>
+      </c>
+      <c r="C55">
+        <v>30.1047367012102</v>
+      </c>
+      <c r="D55">
+        <v>0.8459367012101915</v>
+      </c>
+      <c r="E55">
+        <v>33.80119999999999</v>
+      </c>
+      <c r="F55">
+        <v>33.94119999999999</v>
+      </c>
+      <c r="G55">
+        <v>63.2</v>
+      </c>
+      <c r="H55">
+        <v>63.9</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>8.74</v>
+      </c>
+      <c r="K55">
+        <v>1.84</v>
+      </c>
+      <c r="L55">
+        <v>6.9</v>
+      </c>
+      <c r="M55">
+        <v>0.6041533599999999</v>
+      </c>
+      <c r="N55">
+        <v>6.295846640000001</v>
+      </c>
+      <c r="O55">
+        <v>1.7628370592</v>
+      </c>
+      <c r="P55">
+        <v>4.5330095808</v>
+      </c>
+      <c r="Q55">
+        <v>6.3730095808</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.08893476322308093</v>
+      </c>
+      <c r="T55">
+        <v>1.687177186929681</v>
+      </c>
+      <c r="U55">
+        <v>0.0178</v>
+      </c>
+      <c r="V55">
+        <v>0.28</v>
+      </c>
+      <c r="W55">
+        <v>0.012816</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>11.42094119943321</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.04850391700935065</v>
+      </c>
+      <c r="C56">
+        <v>29.46444993469731</v>
+      </c>
+      <c r="D56">
+        <v>0.8460499346973004</v>
+      </c>
+      <c r="E56">
+        <v>34.44159999999999</v>
+      </c>
+      <c r="F56">
+        <v>34.58159999999999</v>
+      </c>
+      <c r="G56">
+        <v>63.2</v>
+      </c>
+      <c r="H56">
+        <v>63.9</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>8.74</v>
+      </c>
+      <c r="K56">
+        <v>1.84</v>
+      </c>
+      <c r="L56">
+        <v>6.9</v>
+      </c>
+      <c r="M56">
+        <v>0.6155524799999998</v>
+      </c>
+      <c r="N56">
+        <v>6.284447520000001</v>
+      </c>
+      <c r="O56">
+        <v>1.7596453056</v>
+      </c>
+      <c r="P56">
+        <v>4.5248022144</v>
+      </c>
+      <c r="Q56">
+        <v>6.3648022144</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.09039842828119707</v>
+      </c>
+      <c r="T56">
+        <v>1.71818703985587</v>
+      </c>
+      <c r="U56">
+        <v>0.0178</v>
+      </c>
+      <c r="V56">
+        <v>0.28</v>
+      </c>
+      <c r="W56">
+        <v>0.012816</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>11.20944228833259</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.04841601530385326</v>
+      </c>
+      <c r="C57">
+        <v>28.82416319850237</v>
+      </c>
+      <c r="D57">
+        <v>0.8461631985023729</v>
+      </c>
+      <c r="E57">
+        <v>35.082</v>
+      </c>
+      <c r="F57">
+        <v>35.222</v>
+      </c>
+      <c r="G57">
+        <v>63.2</v>
+      </c>
+      <c r="H57">
+        <v>63.9</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>8.74</v>
+      </c>
+      <c r="K57">
+        <v>1.84</v>
+      </c>
+      <c r="L57">
+        <v>6.9</v>
+      </c>
+      <c r="M57">
+        <v>0.6269516000000001</v>
+      </c>
+      <c r="N57">
+        <v>6.2730484</v>
+      </c>
+      <c r="O57">
+        <v>1.756453552</v>
+      </c>
+      <c r="P57">
+        <v>4.516594848</v>
+      </c>
+      <c r="Q57">
+        <v>6.356594848</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.09192714511967393</v>
+      </c>
+      <c r="T57">
+        <v>1.750575108467668</v>
+      </c>
+      <c r="U57">
+        <v>0.0178</v>
+      </c>
+      <c r="V57">
+        <v>0.28</v>
+      </c>
+      <c r="W57">
+        <v>0.012816</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>11.00563424672654</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.04832811359835588</v>
+      </c>
+      <c r="C58">
+        <v>28.18387649263759</v>
+      </c>
+      <c r="D58">
+        <v>0.8462764926375872</v>
+      </c>
+      <c r="E58">
+        <v>35.7224</v>
+      </c>
+      <c r="F58">
+        <v>35.8624</v>
+      </c>
+      <c r="G58">
+        <v>63.2</v>
+      </c>
+      <c r="H58">
+        <v>63.9</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>8.74</v>
+      </c>
+      <c r="K58">
+        <v>1.84</v>
+      </c>
+      <c r="L58">
+        <v>6.9</v>
+      </c>
+      <c r="M58">
+        <v>0.63835072</v>
+      </c>
+      <c r="N58">
+        <v>6.26164928</v>
+      </c>
+      <c r="O58">
+        <v>1.7532617984</v>
+      </c>
+      <c r="P58">
+        <v>4.5083874816</v>
+      </c>
+      <c r="Q58">
+        <v>6.3483874816</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.09352534908717246</v>
+      </c>
+      <c r="T58">
+        <v>1.784435362016366</v>
+      </c>
+      <c r="U58">
+        <v>0.0178</v>
+      </c>
+      <c r="V58">
+        <v>0.28</v>
+      </c>
+      <c r="W58">
+        <v>0.012816</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>10.80910506374928</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.04914309189285848</v>
+      </c>
+      <c r="C59">
+        <v>27.54242725097432</v>
+      </c>
+      <c r="D59">
+        <v>0.8452272509743195</v>
+      </c>
+      <c r="E59">
+        <v>36.3628</v>
+      </c>
+      <c r="F59">
+        <v>36.5028</v>
+      </c>
+      <c r="G59">
+        <v>63.2</v>
+      </c>
+      <c r="H59">
+        <v>63.9</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>8.74</v>
+      </c>
+      <c r="K59">
+        <v>1.84</v>
+      </c>
+      <c r="L59">
+        <v>6.9</v>
+      </c>
+      <c r="M59">
+        <v>0.7300559999999999</v>
+      </c>
+      <c r="N59">
+        <v>6.169944</v>
+      </c>
+      <c r="O59">
+        <v>1.72758432</v>
+      </c>
+      <c r="P59">
+        <v>4.44235968</v>
+      </c>
+      <c r="Q59">
+        <v>6.28235968</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.09519788812292672</v>
+      </c>
+      <c r="T59">
+        <v>1.819870511078956</v>
+      </c>
+      <c r="U59">
+        <v>0.02</v>
+      </c>
+      <c r="V59">
+        <v>0.28</v>
+      </c>
+      <c r="W59">
+        <v>0.0144</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>9.451329761004637</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.04907103018736111</v>
+      </c>
+      <c r="C60">
+        <v>26.90211992176066</v>
+      </c>
+      <c r="D60">
+        <v>0.8453199217606508</v>
+      </c>
+      <c r="E60">
+        <v>37.00319999999999</v>
+      </c>
+      <c r="F60">
+        <v>37.14319999999999</v>
+      </c>
+      <c r="G60">
+        <v>63.2</v>
+      </c>
+      <c r="H60">
+        <v>63.9</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>8.74</v>
+      </c>
+      <c r="K60">
+        <v>1.84</v>
+      </c>
+      <c r="L60">
+        <v>6.9</v>
+      </c>
+      <c r="M60">
+        <v>0.7428639999999997</v>
+      </c>
+      <c r="N60">
+        <v>6.157136</v>
+      </c>
+      <c r="O60">
+        <v>1.72399808</v>
+      </c>
+      <c r="P60">
+        <v>4.43313792</v>
+      </c>
+      <c r="Q60">
+        <v>6.27313792</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.09695007187466929</v>
+      </c>
+      <c r="T60">
+        <v>1.856993048192146</v>
+      </c>
+      <c r="U60">
+        <v>0.02</v>
+      </c>
+      <c r="V60">
+        <v>0.28</v>
+      </c>
+      <c r="W60">
+        <v>0.0144</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>9.288375799608007</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.04899896848186371</v>
+      </c>
+      <c r="C61">
+        <v>26.26181261287009</v>
+      </c>
+      <c r="D61">
+        <v>0.8454126128700757</v>
+      </c>
+      <c r="E61">
+        <v>37.64359999999999</v>
+      </c>
+      <c r="F61">
+        <v>37.78359999999999</v>
+      </c>
+      <c r="G61">
+        <v>63.2</v>
+      </c>
+      <c r="H61">
+        <v>63.9</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>8.74</v>
+      </c>
+      <c r="K61">
+        <v>1.84</v>
+      </c>
+      <c r="L61">
+        <v>6.9</v>
+      </c>
+      <c r="M61">
+        <v>0.7556719999999998</v>
+      </c>
+      <c r="N61">
+        <v>6.144328000000001</v>
+      </c>
+      <c r="O61">
+        <v>1.72041184</v>
+      </c>
+      <c r="P61">
+        <v>4.42391616</v>
+      </c>
+      <c r="Q61">
+        <v>6.26391616</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.09878772800454565</v>
+      </c>
+      <c r="T61">
+        <v>1.895926440774272</v>
+      </c>
+      <c r="U61">
+        <v>0.02</v>
+      </c>
+      <c r="V61">
+        <v>0.28</v>
+      </c>
+      <c r="W61">
+        <v>0.0144</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>9.130945701309566</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.04892690677636634</v>
+      </c>
+      <c r="C62">
+        <v>25.6215053243093</v>
+      </c>
+      <c r="D62">
+        <v>0.8455053243092807</v>
+      </c>
+      <c r="E62">
+        <v>38.28399999999999</v>
+      </c>
+      <c r="F62">
+        <v>38.42399999999999</v>
+      </c>
+      <c r="G62">
+        <v>63.2</v>
+      </c>
+      <c r="H62">
+        <v>63.9</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>8.74</v>
+      </c>
+      <c r="K62">
+        <v>1.84</v>
+      </c>
+      <c r="L62">
+        <v>6.9</v>
+      </c>
+      <c r="M62">
+        <v>0.7684799999999997</v>
+      </c>
+      <c r="N62">
+        <v>6.131520000000001</v>
+      </c>
+      <c r="O62">
+        <v>1.7168256</v>
+      </c>
+      <c r="P62">
+        <v>4.4146944</v>
+      </c>
+      <c r="Q62">
+        <v>6.2546944</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1007172669409158</v>
+      </c>
+      <c r="T62">
+        <v>1.936806502985505</v>
+      </c>
+      <c r="U62">
+        <v>0.02</v>
+      </c>
+      <c r="V62">
+        <v>0.28</v>
+      </c>
+      <c r="W62">
+        <v>0.0144</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>8.978763272954406</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.04885484507086894</v>
+      </c>
+      <c r="C63">
+        <v>24.98119805608496</v>
+      </c>
+      <c r="D63">
+        <v>0.8455980560849544</v>
+      </c>
+      <c r="E63">
+        <v>38.92439999999999</v>
+      </c>
+      <c r="F63">
+        <v>39.06439999999999</v>
+      </c>
+      <c r="G63">
+        <v>63.2</v>
+      </c>
+      <c r="H63">
+        <v>63.9</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>8.74</v>
+      </c>
+      <c r="K63">
+        <v>1.84</v>
+      </c>
+      <c r="L63">
+        <v>6.9</v>
+      </c>
+      <c r="M63">
+        <v>0.7812879999999998</v>
+      </c>
+      <c r="N63">
+        <v>6.118712</v>
+      </c>
+      <c r="O63">
+        <v>1.71323936</v>
+      </c>
+      <c r="P63">
+        <v>4.40547264</v>
+      </c>
+      <c r="Q63">
+        <v>6.24547264</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1027457565919716</v>
+      </c>
+      <c r="T63">
+        <v>1.979782978643467</v>
+      </c>
+      <c r="U63">
+        <v>0.02</v>
+      </c>
+      <c r="V63">
+        <v>0.28</v>
+      </c>
+      <c r="W63">
+        <v>0.0144</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>8.831570432414171</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.04878278336537156</v>
+      </c>
+      <c r="C64">
+        <v>24.3408908082038</v>
+      </c>
+      <c r="D64">
+        <v>0.8456908082037891</v>
+      </c>
+      <c r="E64">
+        <v>39.56479999999999</v>
+      </c>
+      <c r="F64">
+        <v>39.70479999999999</v>
+      </c>
+      <c r="G64">
+        <v>63.2</v>
+      </c>
+      <c r="H64">
+        <v>63.9</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>8.74</v>
+      </c>
+      <c r="K64">
+        <v>1.84</v>
+      </c>
+      <c r="L64">
+        <v>6.9</v>
+      </c>
+      <c r="M64">
+        <v>0.7940959999999997</v>
+      </c>
+      <c r="N64">
+        <v>6.105904000000001</v>
+      </c>
+      <c r="O64">
+        <v>1.70965312</v>
+      </c>
+      <c r="P64">
+        <v>4.39625088</v>
+      </c>
+      <c r="Q64">
+        <v>6.23625088</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1048810088562409</v>
+      </c>
+      <c r="T64">
+        <v>2.025021374072901</v>
+      </c>
+      <c r="U64">
+        <v>0.02</v>
+      </c>
+      <c r="V64">
+        <v>0.28</v>
+      </c>
+      <c r="W64">
+        <v>0.0144</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>8.689125748020395</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.04871072165987417</v>
+      </c>
+      <c r="C65">
+        <v>23.70058358067248</v>
+      </c>
+      <c r="D65">
+        <v>0.8457835806724797</v>
+      </c>
+      <c r="E65">
+        <v>40.2052</v>
+      </c>
+      <c r="F65">
+        <v>40.3452</v>
+      </c>
+      <c r="G65">
+        <v>63.2</v>
+      </c>
+      <c r="H65">
+        <v>63.9</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>8.74</v>
+      </c>
+      <c r="K65">
+        <v>1.84</v>
+      </c>
+      <c r="L65">
+        <v>6.9</v>
+      </c>
+      <c r="M65">
+        <v>0.8069039999999998</v>
+      </c>
+      <c r="N65">
+        <v>6.093096000000001</v>
+      </c>
+      <c r="O65">
+        <v>1.706066880000001</v>
+      </c>
+      <c r="P65">
+        <v>4.38702912</v>
+      </c>
+      <c r="Q65">
+        <v>6.22702912</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1071316801618221</v>
+      </c>
+      <c r="T65">
+        <v>2.072705088174196</v>
+      </c>
+      <c r="U65">
+        <v>0.02</v>
+      </c>
+      <c r="V65">
+        <v>0.28</v>
+      </c>
+      <c r="W65">
+        <v>0.0144</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>8.551203117099433</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.04863865995437679</v>
+      </c>
+      <c r="C66">
+        <v>23.06027637349774</v>
+      </c>
+      <c r="D66">
+        <v>0.845876373497724</v>
+      </c>
+      <c r="E66">
+        <v>40.8456</v>
+      </c>
+      <c r="F66">
+        <v>40.9856</v>
+      </c>
+      <c r="G66">
+        <v>63.2</v>
+      </c>
+      <c r="H66">
+        <v>63.9</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>8.74</v>
+      </c>
+      <c r="K66">
+        <v>1.84</v>
+      </c>
+      <c r="L66">
+        <v>6.9</v>
+      </c>
+      <c r="M66">
+        <v>0.8197119999999999</v>
+      </c>
+      <c r="N66">
+        <v>6.080288</v>
+      </c>
+      <c r="O66">
+        <v>1.70248064</v>
+      </c>
+      <c r="P66">
+        <v>4.37780736</v>
+      </c>
+      <c r="Q66">
+        <v>6.21780736</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1095073887621577</v>
+      </c>
+      <c r="T66">
+        <v>2.123037897503342</v>
+      </c>
+      <c r="U66">
+        <v>0.02</v>
+      </c>
+      <c r="V66">
+        <v>0.28</v>
+      </c>
+      <c r="W66">
+        <v>0.0144</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>8.417590568394754</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.0485665982488794</v>
+      </c>
+      <c r="C67">
+        <v>22.41996918668622</v>
+      </c>
+      <c r="D67">
+        <v>0.8459691866862232</v>
+      </c>
+      <c r="E67">
+        <v>41.486</v>
+      </c>
+      <c r="F67">
+        <v>41.626</v>
+      </c>
+      <c r="G67">
+        <v>63.2</v>
+      </c>
+      <c r="H67">
+        <v>63.9</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>8.74</v>
+      </c>
+      <c r="K67">
+        <v>1.84</v>
+      </c>
+      <c r="L67">
+        <v>6.9</v>
+      </c>
+      <c r="M67">
+        <v>0.8325199999999998</v>
+      </c>
+      <c r="N67">
+        <v>6.067480000000001</v>
+      </c>
+      <c r="O67">
+        <v>1.6988944</v>
+      </c>
+      <c r="P67">
+        <v>4.3685856</v>
+      </c>
+      <c r="Q67">
+        <v>6.2085856</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1120188521396554</v>
+      </c>
+      <c r="T67">
+        <v>2.176246867365581</v>
+      </c>
+      <c r="U67">
+        <v>0.02</v>
+      </c>
+      <c r="V67">
+        <v>0.28</v>
+      </c>
+      <c r="W67">
+        <v>0.0144</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>8.288089175034838</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.048494536543382</v>
+      </c>
+      <c r="C68">
+        <v>21.77966202024468</v>
+      </c>
+      <c r="D68">
+        <v>0.8460620202446805</v>
+      </c>
+      <c r="E68">
+        <v>42.1264</v>
+      </c>
+      <c r="F68">
+        <v>42.2664</v>
+      </c>
+      <c r="G68">
+        <v>63.2</v>
+      </c>
+      <c r="H68">
+        <v>63.9</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>8.74</v>
+      </c>
+      <c r="K68">
+        <v>1.84</v>
+      </c>
+      <c r="L68">
+        <v>6.9</v>
+      </c>
+      <c r="M68">
+        <v>0.8453279999999999</v>
+      </c>
+      <c r="N68">
+        <v>6.054672</v>
+      </c>
+      <c r="O68">
+        <v>1.69530816</v>
+      </c>
+      <c r="P68">
+        <v>4.35936384</v>
+      </c>
+      <c r="Q68">
+        <v>6.19936384</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1146780486570059</v>
+      </c>
+      <c r="T68">
+        <v>2.232585776631481</v>
+      </c>
+      <c r="U68">
+        <v>0.02</v>
+      </c>
+      <c r="V68">
+        <v>0.28</v>
+      </c>
+      <c r="W68">
+        <v>0.0144</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>8.162512066322186</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.04842247483788462</v>
+      </c>
+      <c r="C69">
+        <v>21.13935487417981</v>
+      </c>
+      <c r="D69">
+        <v>0.8461548741798031</v>
+      </c>
+      <c r="E69">
+        <v>42.7668</v>
+      </c>
+      <c r="F69">
+        <v>42.9068</v>
+      </c>
+      <c r="G69">
+        <v>63.2</v>
+      </c>
+      <c r="H69">
+        <v>63.9</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>8.74</v>
+      </c>
+      <c r="K69">
+        <v>1.84</v>
+      </c>
+      <c r="L69">
+        <v>6.9</v>
+      </c>
+      <c r="M69">
+        <v>0.8581359999999998</v>
+      </c>
+      <c r="N69">
+        <v>6.041864</v>
+      </c>
+      <c r="O69">
+        <v>1.69172192</v>
+      </c>
+      <c r="P69">
+        <v>4.35014208</v>
+      </c>
+      <c r="Q69">
+        <v>6.19014208</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1174984085996504</v>
+      </c>
+      <c r="T69">
+        <v>2.29233916524683</v>
+      </c>
+      <c r="U69">
+        <v>0.02</v>
+      </c>
+      <c r="V69">
+        <v>0.28</v>
+      </c>
+      <c r="W69">
+        <v>0.0144</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>8.040683528018871</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.04835041313238723</v>
+      </c>
+      <c r="C70">
+        <v>20.49904774849831</v>
+      </c>
+      <c r="D70">
+        <v>0.8462477484983002</v>
+      </c>
+      <c r="E70">
+        <v>43.4072</v>
+      </c>
+      <c r="F70">
+        <v>43.5472</v>
+      </c>
+      <c r="G70">
+        <v>63.2</v>
+      </c>
+      <c r="H70">
+        <v>63.9</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>8.74</v>
+      </c>
+      <c r="K70">
+        <v>1.84</v>
+      </c>
+      <c r="L70">
+        <v>6.9</v>
+      </c>
+      <c r="M70">
+        <v>0.8709439999999998</v>
+      </c>
+      <c r="N70">
+        <v>6.029056000000001</v>
+      </c>
+      <c r="O70">
+        <v>1.68813568</v>
+      </c>
+      <c r="P70">
+        <v>4.34092032</v>
+      </c>
+      <c r="Q70">
+        <v>6.18092032</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1204950410387101</v>
+      </c>
+      <c r="T70">
+        <v>2.355827140650638</v>
+      </c>
+      <c r="U70">
+        <v>0.02</v>
+      </c>
+      <c r="V70">
+        <v>0.28</v>
+      </c>
+      <c r="W70">
+        <v>0.0144</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>7.922438182018594</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.04882483142688985</v>
+      </c>
+      <c r="C71">
+        <v>19.85803668479755</v>
+      </c>
+      <c r="D71">
+        <v>0.8456366847975471</v>
+      </c>
+      <c r="E71">
+        <v>44.0476</v>
+      </c>
+      <c r="F71">
+        <v>44.1876</v>
+      </c>
+      <c r="G71">
+        <v>63.2</v>
+      </c>
+      <c r="H71">
+        <v>63.9</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>8.74</v>
+      </c>
+      <c r="K71">
+        <v>1.84</v>
+      </c>
+      <c r="L71">
+        <v>6.9</v>
+      </c>
+      <c r="M71">
+        <v>0.9323583599999999</v>
+      </c>
+      <c r="N71">
+        <v>5.96764164</v>
+      </c>
+      <c r="O71">
+        <v>1.6709396592</v>
+      </c>
+      <c r="P71">
+        <v>4.2967019808</v>
+      </c>
+      <c r="Q71">
+        <v>6.1367019808</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1236850046028705</v>
+      </c>
+      <c r="T71">
+        <v>2.423411114467595</v>
+      </c>
+      <c r="U71">
+        <v>0.0211</v>
+      </c>
+      <c r="V71">
+        <v>0.28</v>
+      </c>
+      <c r="W71">
+        <v>0.015192</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>7.400587902702991</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.04876068972139246</v>
+      </c>
+      <c r="C72">
+        <v>19.21771924946784</v>
+      </c>
+      <c r="D72">
+        <v>0.8457192494678304</v>
+      </c>
+      <c r="E72">
+        <v>44.688</v>
+      </c>
+      <c r="F72">
+        <v>44.828</v>
+      </c>
+      <c r="G72">
+        <v>63.2</v>
+      </c>
+      <c r="H72">
+        <v>63.9</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>8.74</v>
+      </c>
+      <c r="K72">
+        <v>1.84</v>
+      </c>
+      <c r="L72">
+        <v>6.9</v>
+      </c>
+      <c r="M72">
+        <v>0.9458707999999999</v>
+      </c>
+      <c r="N72">
+        <v>5.954129200000001</v>
+      </c>
+      <c r="O72">
+        <v>1.667156176</v>
+      </c>
+      <c r="P72">
+        <v>4.286973024</v>
+      </c>
+      <c r="Q72">
+        <v>6.126973024</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1270876324046415</v>
+      </c>
+      <c r="T72">
+        <v>2.495500686539016</v>
+      </c>
+      <c r="U72">
+        <v>0.0211</v>
+      </c>
+      <c r="V72">
+        <v>0.28</v>
+      </c>
+      <c r="W72">
+        <v>0.015192</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>7.294865218378663</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.04869654801589508</v>
+      </c>
+      <c r="C73">
+        <v>18.57740183026228</v>
+      </c>
+      <c r="D73">
+        <v>0.8458018302622731</v>
+      </c>
+      <c r="E73">
+        <v>45.32839999999999</v>
+      </c>
+      <c r="F73">
+        <v>45.4684</v>
+      </c>
+      <c r="G73">
+        <v>63.2</v>
+      </c>
+      <c r="H73">
+        <v>63.9</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>8.74</v>
+      </c>
+      <c r="K73">
+        <v>1.84</v>
+      </c>
+      <c r="L73">
+        <v>6.9</v>
+      </c>
+      <c r="M73">
+        <v>0.95938324</v>
+      </c>
+      <c r="N73">
+        <v>5.94061676</v>
+      </c>
+      <c r="O73">
+        <v>1.6633726928</v>
+      </c>
+      <c r="P73">
+        <v>4.2772440672</v>
+      </c>
+      <c r="Q73">
+        <v>6.1172440672</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1307249241927416</v>
+      </c>
+      <c r="T73">
+        <v>2.572561953236052</v>
+      </c>
+      <c r="U73">
+        <v>0.0211</v>
+      </c>
+      <c r="V73">
+        <v>0.28</v>
+      </c>
+      <c r="W73">
+        <v>0.015192</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>7.192120637838118</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.04863240631039769</v>
+      </c>
+      <c r="C74">
+        <v>17.9370844271856</v>
+      </c>
+      <c r="D74">
+        <v>0.8458844271855993</v>
+      </c>
+      <c r="E74">
+        <v>45.96879999999999</v>
+      </c>
+      <c r="F74">
+        <v>46.1088</v>
+      </c>
+      <c r="G74">
+        <v>63.2</v>
+      </c>
+      <c r="H74">
+        <v>63.9</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>8.74</v>
+      </c>
+      <c r="K74">
+        <v>1.84</v>
+      </c>
+      <c r="L74">
+        <v>6.9</v>
+      </c>
+      <c r="M74">
+        <v>0.9728956799999999</v>
+      </c>
+      <c r="N74">
+        <v>5.927104320000001</v>
+      </c>
+      <c r="O74">
+        <v>1.6595892096</v>
+      </c>
+      <c r="P74">
+        <v>4.2675151104</v>
+      </c>
+      <c r="Q74">
+        <v>6.1075151104</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1346220225371346</v>
+      </c>
+      <c r="T74">
+        <v>2.655127596125733</v>
+      </c>
+      <c r="U74">
+        <v>0.0211</v>
+      </c>
+      <c r="V74">
+        <v>0.28</v>
+      </c>
+      <c r="W74">
+        <v>0.015192</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>7.092230073423701</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.0485682646049003</v>
+      </c>
+      <c r="C75">
+        <v>17.29676704024255</v>
+      </c>
+      <c r="D75">
+        <v>0.8459670402425346</v>
+      </c>
+      <c r="E75">
+        <v>46.60919999999999</v>
+      </c>
+      <c r="F75">
+        <v>46.74919999999999</v>
+      </c>
+      <c r="G75">
+        <v>63.2</v>
+      </c>
+      <c r="H75">
+        <v>63.9</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>8.74</v>
+      </c>
+      <c r="K75">
+        <v>1.84</v>
+      </c>
+      <c r="L75">
+        <v>6.9</v>
+      </c>
+      <c r="M75">
+        <v>0.9864081199999999</v>
+      </c>
+      <c r="N75">
+        <v>5.91359188</v>
+      </c>
+      <c r="O75">
+        <v>1.6558057264</v>
+      </c>
+      <c r="P75">
+        <v>4.2577861536</v>
+      </c>
+      <c r="Q75">
+        <v>6.0977861536</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1388077948329641</v>
+      </c>
+      <c r="T75">
+        <v>2.743809212562798</v>
+      </c>
+      <c r="U75">
+        <v>0.0211</v>
+      </c>
+      <c r="V75">
+        <v>0.28</v>
+      </c>
+      <c r="W75">
+        <v>0.015192</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>6.995076236801458</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.04850412289940292</v>
+      </c>
+      <c r="C76">
+        <v>16.65644966943781</v>
+      </c>
+      <c r="D76">
+        <v>0.8460496694378062</v>
+      </c>
+      <c r="E76">
+        <v>47.24959999999999</v>
+      </c>
+      <c r="F76">
+        <v>47.38959999999999</v>
+      </c>
+      <c r="G76">
+        <v>63.2</v>
+      </c>
+      <c r="H76">
+        <v>63.9</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>8.74</v>
+      </c>
+      <c r="K76">
+        <v>1.84</v>
+      </c>
+      <c r="L76">
+        <v>6.9</v>
+      </c>
+      <c r="M76">
+        <v>0.99992056</v>
+      </c>
+      <c r="N76">
+        <v>5.900079440000001</v>
+      </c>
+      <c r="O76">
+        <v>1.6520222432</v>
+      </c>
+      <c r="P76">
+        <v>4.2480571968</v>
+      </c>
+      <c r="Q76">
+        <v>6.0880571968</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.1433155496130881</v>
+      </c>
+      <c r="T76">
+        <v>2.839312491802715</v>
+      </c>
+      <c r="U76">
+        <v>0.0211</v>
+      </c>
+      <c r="V76">
+        <v>0.28</v>
+      </c>
+      <c r="W76">
+        <v>0.015192</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>6.900548179547385</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.04843998119390553</v>
+      </c>
+      <c r="C77">
+        <v>16.01613231477615</v>
+      </c>
+      <c r="D77">
+        <v>0.8461323147761439</v>
+      </c>
+      <c r="E77">
+        <v>47.88999999999999</v>
+      </c>
+      <c r="F77">
+        <v>48.02999999999999</v>
+      </c>
+      <c r="G77">
+        <v>63.2</v>
+      </c>
+      <c r="H77">
+        <v>63.9</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>8.74</v>
+      </c>
+      <c r="K77">
+        <v>1.84</v>
+      </c>
+      <c r="L77">
+        <v>6.9</v>
+      </c>
+      <c r="M77">
+        <v>1.013433</v>
+      </c>
+      <c r="N77">
+        <v>5.886567</v>
+      </c>
+      <c r="O77">
+        <v>1.64823876</v>
+      </c>
+      <c r="P77">
+        <v>4.23832824</v>
+      </c>
+      <c r="Q77">
+        <v>6.078328239999999</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1481839247756221</v>
+      </c>
+      <c r="T77">
+        <v>2.942456033381824</v>
+      </c>
+      <c r="U77">
+        <v>0.0211</v>
+      </c>
+      <c r="V77">
+        <v>0.28</v>
+      </c>
+      <c r="W77">
+        <v>0.015192</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>6.808540870486753</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.04837583948840814</v>
+      </c>
+      <c r="C78">
+        <v>15.37581497626228</v>
+      </c>
+      <c r="D78">
+        <v>0.8462149762622788</v>
+      </c>
+      <c r="E78">
+        <v>48.53039999999999</v>
+      </c>
+      <c r="F78">
+        <v>48.67039999999999</v>
+      </c>
+      <c r="G78">
+        <v>63.2</v>
+      </c>
+      <c r="H78">
+        <v>63.9</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>8.74</v>
+      </c>
+      <c r="K78">
+        <v>1.84</v>
+      </c>
+      <c r="L78">
+        <v>6.9</v>
+      </c>
+      <c r="M78">
+        <v>1.02694544</v>
+      </c>
+      <c r="N78">
+        <v>5.87305456</v>
+      </c>
+      <c r="O78">
+        <v>1.6444552768</v>
+      </c>
+      <c r="P78">
+        <v>4.228599283199999</v>
+      </c>
+      <c r="Q78">
+        <v>6.068599283199999</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.1534579978683673</v>
+      </c>
+      <c r="T78">
+        <v>3.054194870092527</v>
+      </c>
+      <c r="U78">
+        <v>0.0211</v>
+      </c>
+      <c r="V78">
+        <v>0.28</v>
+      </c>
+      <c r="W78">
+        <v>0.015192</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>6.718954806401399</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.04831169778291074</v>
+      </c>
+      <c r="C79">
+        <v>14.73549765390096</v>
+      </c>
+      <c r="D79">
+        <v>0.8462976539009439</v>
+      </c>
+      <c r="E79">
+        <v>49.17079999999999</v>
+      </c>
+      <c r="F79">
+        <v>49.31079999999999</v>
+      </c>
+      <c r="G79">
+        <v>63.2</v>
+      </c>
+      <c r="H79">
+        <v>63.9</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>8.74</v>
+      </c>
+      <c r="K79">
+        <v>1.84</v>
+      </c>
+      <c r="L79">
+        <v>6.9</v>
+      </c>
+      <c r="M79">
+        <v>1.04045788</v>
+      </c>
+      <c r="N79">
+        <v>5.85954212</v>
+      </c>
+      <c r="O79">
+        <v>1.6406717936</v>
+      </c>
+      <c r="P79">
+        <v>4.2188703264</v>
+      </c>
+      <c r="Q79">
+        <v>6.0588703264</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.1591906860126554</v>
+      </c>
+      <c r="T79">
+        <v>3.175650127386768</v>
+      </c>
+      <c r="U79">
+        <v>0.0211</v>
+      </c>
+      <c r="V79">
+        <v>0.28</v>
+      </c>
+      <c r="W79">
+        <v>0.015192</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>6.631695653071512</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.04824755607741336</v>
+      </c>
+      <c r="C80">
+        <v>14.09518034769689</v>
+      </c>
+      <c r="D80">
+        <v>0.8463803476968742</v>
+      </c>
+      <c r="E80">
+        <v>49.81119999999999</v>
+      </c>
+      <c r="F80">
+        <v>49.95119999999999</v>
+      </c>
+      <c r="G80">
+        <v>63.2</v>
+      </c>
+      <c r="H80">
+        <v>63.9</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>8.74</v>
+      </c>
+      <c r="K80">
+        <v>1.84</v>
+      </c>
+      <c r="L80">
+        <v>6.9</v>
+      </c>
+      <c r="M80">
+        <v>1.05397032</v>
+      </c>
+      <c r="N80">
+        <v>5.846029680000001</v>
+      </c>
+      <c r="O80">
+        <v>1.6368883104</v>
+      </c>
+      <c r="P80">
+        <v>4.2091413696</v>
+      </c>
+      <c r="Q80">
+        <v>6.0491413696</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.1654445276246062</v>
+      </c>
+      <c r="T80">
+        <v>3.308146771707759</v>
+      </c>
+      <c r="U80">
+        <v>0.0211</v>
+      </c>
+      <c r="V80">
+        <v>0.28</v>
+      </c>
+      <c r="W80">
+        <v>0.015192</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>6.54667391392957</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.04818341437191598</v>
+      </c>
+      <c r="C81">
+        <v>13.45486305765481</v>
+      </c>
+      <c r="D81">
+        <v>0.8464630576548062</v>
+      </c>
+      <c r="E81">
+        <v>50.45159999999999</v>
+      </c>
+      <c r="F81">
+        <v>50.59159999999999</v>
+      </c>
+      <c r="G81">
+        <v>63.2</v>
+      </c>
+      <c r="H81">
+        <v>63.9</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>8.74</v>
+      </c>
+      <c r="K81">
+        <v>1.84</v>
+      </c>
+      <c r="L81">
+        <v>6.9</v>
+      </c>
+      <c r="M81">
+        <v>1.06748276</v>
+      </c>
+      <c r="N81">
+        <v>5.83251724</v>
+      </c>
+      <c r="O81">
+        <v>1.6331048272</v>
+      </c>
+      <c r="P81">
+        <v>4.1994124128</v>
+      </c>
+      <c r="Q81">
+        <v>6.0394124128</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.1722939731995999</v>
+      </c>
+      <c r="T81">
+        <v>3.453262144059321</v>
+      </c>
+      <c r="U81">
+        <v>0.0211</v>
+      </c>
+      <c r="V81">
+        <v>0.28</v>
+      </c>
+      <c r="W81">
+        <v>0.015192</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>6.463804623879828</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.04898327266641859</v>
+      </c>
+      <c r="C82">
+        <v>12.81343280468788</v>
+      </c>
+      <c r="D82">
+        <v>0.8454328046878707</v>
+      </c>
+      <c r="E82">
+        <v>51.092</v>
+      </c>
+      <c r="F82">
+        <v>51.232</v>
+      </c>
+      <c r="G82">
+        <v>63.2</v>
+      </c>
+      <c r="H82">
+        <v>63.9</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>8.74</v>
+      </c>
+      <c r="K82">
+        <v>1.84</v>
+      </c>
+      <c r="L82">
+        <v>6.9</v>
+      </c>
+      <c r="M82">
+        <v>1.1578432</v>
+      </c>
+      <c r="N82">
+        <v>5.7421568</v>
+      </c>
+      <c r="O82">
+        <v>1.607803904</v>
+      </c>
+      <c r="P82">
+        <v>4.134352896</v>
+      </c>
+      <c r="Q82">
+        <v>5.974352896</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.179828363332093</v>
+      </c>
+      <c r="T82">
+        <v>3.612889053646038</v>
+      </c>
+      <c r="U82">
+        <v>0.0226</v>
+      </c>
+      <c r="V82">
+        <v>0.28</v>
+      </c>
+      <c r="W82">
+        <v>0.016272</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>5.959356154615755</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.0489299309609212</v>
+      </c>
+      <c r="C83">
+        <v>12.17310143311691</v>
+      </c>
+      <c r="D83">
+        <v>0.8455014331169016</v>
+      </c>
+      <c r="E83">
+        <v>51.7324</v>
+      </c>
+      <c r="F83">
+        <v>51.8724</v>
+      </c>
+      <c r="G83">
+        <v>63.2</v>
+      </c>
+      <c r="H83">
+        <v>63.9</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>8.74</v>
+      </c>
+      <c r="K83">
+        <v>1.84</v>
+      </c>
+      <c r="L83">
+        <v>6.9</v>
+      </c>
+      <c r="M83">
+        <v>1.17231624</v>
+      </c>
+      <c r="N83">
+        <v>5.727683760000001</v>
+      </c>
+      <c r="O83">
+        <v>1.6037514528</v>
+      </c>
+      <c r="P83">
+        <v>4.1239323072</v>
+      </c>
+      <c r="Q83">
+        <v>5.9639323072</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.1881558471627432</v>
+      </c>
+      <c r="T83">
+        <v>3.789318795820831</v>
+      </c>
+      <c r="U83">
+        <v>0.0226</v>
+      </c>
+      <c r="V83">
+        <v>0.28</v>
+      </c>
+      <c r="W83">
+        <v>0.016272</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>5.885783856410622</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.04887658925542382</v>
+      </c>
+      <c r="C84">
+        <v>11.53277007268873</v>
+      </c>
+      <c r="D84">
+        <v>0.8455700726887306</v>
+      </c>
+      <c r="E84">
+        <v>52.3728</v>
+      </c>
+      <c r="F84">
+        <v>52.5128</v>
+      </c>
+      <c r="G84">
+        <v>63.2</v>
+      </c>
+      <c r="H84">
+        <v>63.9</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>8.74</v>
+      </c>
+      <c r="K84">
+        <v>1.84</v>
+      </c>
+      <c r="L84">
+        <v>6.9</v>
+      </c>
+      <c r="M84">
+        <v>1.18678928</v>
+      </c>
+      <c r="N84">
+        <v>5.71321072</v>
+      </c>
+      <c r="O84">
+        <v>1.5996990016</v>
+      </c>
+      <c r="P84">
+        <v>4.1135117184</v>
+      </c>
+      <c r="Q84">
+        <v>5.9535117184</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.1974086069745768</v>
+      </c>
+      <c r="T84">
+        <v>3.985351842681712</v>
+      </c>
+      <c r="U84">
+        <v>0.0226</v>
+      </c>
+      <c r="V84">
+        <v>0.28</v>
+      </c>
+      <c r="W84">
+        <v>0.016272</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>5.814006004503176</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.04882324754992644</v>
+      </c>
+      <c r="C85">
+        <v>10.89243872340607</v>
+      </c>
+      <c r="D85">
+        <v>0.8456387234060719</v>
+      </c>
+      <c r="E85">
+        <v>53.0132</v>
+      </c>
+      <c r="F85">
+        <v>53.1532</v>
+      </c>
+      <c r="G85">
+        <v>63.2</v>
+      </c>
+      <c r="H85">
+        <v>63.9</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>8.74</v>
+      </c>
+      <c r="K85">
+        <v>1.84</v>
+      </c>
+      <c r="L85">
+        <v>6.9</v>
+      </c>
+      <c r="M85">
+        <v>1.20126232</v>
+      </c>
+      <c r="N85">
+        <v>5.698737680000001</v>
+      </c>
+      <c r="O85">
+        <v>1.5956465504</v>
+      </c>
+      <c r="P85">
+        <v>4.1030911296</v>
+      </c>
+      <c r="Q85">
+        <v>5.9430911296</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2077499267642733</v>
+      </c>
+      <c r="T85">
+        <v>4.204447600937993</v>
+      </c>
+      <c r="U85">
+        <v>0.0226</v>
+      </c>
+      <c r="V85">
+        <v>0.28</v>
+      </c>
+      <c r="W85">
+        <v>0.016272</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>5.74395773938868</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.04876990584442905</v>
+      </c>
+      <c r="C86">
+        <v>10.25210738527165</v>
+      </c>
+      <c r="D86">
+        <v>0.8457073852716407</v>
+      </c>
+      <c r="E86">
+        <v>53.65359999999999</v>
+      </c>
+      <c r="F86">
+        <v>53.79359999999999</v>
+      </c>
+      <c r="G86">
+        <v>63.2</v>
+      </c>
+      <c r="H86">
+        <v>63.9</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>8.74</v>
+      </c>
+      <c r="K86">
+        <v>1.84</v>
+      </c>
+      <c r="L86">
+        <v>6.9</v>
+      </c>
+      <c r="M86">
+        <v>1.21573536</v>
+      </c>
+      <c r="N86">
+        <v>5.68426464</v>
+      </c>
+      <c r="O86">
+        <v>1.5915940992</v>
+      </c>
+      <c r="P86">
+        <v>4.0926705408</v>
+      </c>
+      <c r="Q86">
+        <v>5.9326705408</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.2193839115276815</v>
+      </c>
+      <c r="T86">
+        <v>4.450930328976304</v>
+      </c>
+      <c r="U86">
+        <v>0.0226</v>
+      </c>
+      <c r="V86">
+        <v>0.28</v>
+      </c>
+      <c r="W86">
+        <v>0.016272</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>5.675577290110243</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.04871656413893166</v>
+      </c>
+      <c r="C87">
+        <v>9.611776058288164</v>
+      </c>
+      <c r="D87">
+        <v>0.8457760582881526</v>
+      </c>
+      <c r="E87">
+        <v>54.29399999999999</v>
+      </c>
+      <c r="F87">
+        <v>54.43399999999999</v>
+      </c>
+      <c r="G87">
+        <v>63.2</v>
+      </c>
+      <c r="H87">
+        <v>63.9</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>8.74</v>
+      </c>
+      <c r="K87">
+        <v>1.84</v>
+      </c>
+      <c r="L87">
+        <v>6.9</v>
+      </c>
+      <c r="M87">
+        <v>1.2302084</v>
+      </c>
+      <c r="N87">
+        <v>5.669791600000001</v>
+      </c>
+      <c r="O87">
+        <v>1.587541648</v>
+      </c>
+      <c r="P87">
+        <v>4.082249952000001</v>
+      </c>
+      <c r="Q87">
+        <v>5.922249952</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.2325690942595444</v>
+      </c>
+      <c r="T87">
+        <v>4.730277420753059</v>
+      </c>
+      <c r="U87">
+        <v>0.0226</v>
+      </c>
+      <c r="V87">
+        <v>0.28</v>
+      </c>
+      <c r="W87">
+        <v>0.016272</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>5.608805792579536</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.04866322243343427</v>
+      </c>
+      <c r="C88">
+        <v>8.971444742458338</v>
+      </c>
+      <c r="D88">
+        <v>0.8458447424583238</v>
+      </c>
+      <c r="E88">
+        <v>54.93439999999999</v>
+      </c>
+      <c r="F88">
+        <v>55.07439999999999</v>
+      </c>
+      <c r="G88">
+        <v>63.2</v>
+      </c>
+      <c r="H88">
+        <v>63.9</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>8.74</v>
+      </c>
+      <c r="K88">
+        <v>1.84</v>
+      </c>
+      <c r="L88">
+        <v>6.9</v>
+      </c>
+      <c r="M88">
+        <v>1.24468144</v>
+      </c>
+      <c r="N88">
+        <v>5.65531856</v>
+      </c>
+      <c r="O88">
+        <v>1.5834891968</v>
+      </c>
+      <c r="P88">
+        <v>4.0718293632</v>
+      </c>
+      <c r="Q88">
+        <v>5.9118293632</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.2476378745245305</v>
+      </c>
+      <c r="T88">
+        <v>5.049531239926494</v>
+      </c>
+      <c r="U88">
+        <v>0.0226</v>
+      </c>
+      <c r="V88">
+        <v>0.28</v>
+      </c>
+      <c r="W88">
+        <v>0.016272</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>5.543587120572797</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.04860988072793689</v>
+      </c>
+      <c r="C89">
+        <v>8.331113437784886</v>
+      </c>
+      <c r="D89">
+        <v>0.8459134377848725</v>
+      </c>
+      <c r="E89">
+        <v>55.57479999999999</v>
+      </c>
+      <c r="F89">
+        <v>55.71479999999999</v>
+      </c>
+      <c r="G89">
+        <v>63.2</v>
+      </c>
+      <c r="H89">
+        <v>63.9</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>8.74</v>
+      </c>
+      <c r="K89">
+        <v>1.84</v>
+      </c>
+      <c r="L89">
+        <v>6.9</v>
+      </c>
+      <c r="M89">
+        <v>1.25915448</v>
+      </c>
+      <c r="N89">
+        <v>5.640845520000001</v>
+      </c>
+      <c r="O89">
+        <v>1.5794367456</v>
+      </c>
+      <c r="P89">
+        <v>4.0614087744</v>
+      </c>
+      <c r="Q89">
+        <v>5.9014087744</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.2650249286764376</v>
+      </c>
+      <c r="T89">
+        <v>5.417901031280457</v>
+      </c>
+      <c r="U89">
+        <v>0.0226</v>
+      </c>
+      <c r="V89">
+        <v>0.28</v>
+      </c>
+      <c r="W89">
+        <v>0.016272</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>5.479867728382305</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.04855653902243949</v>
+      </c>
+      <c r="C90">
+        <v>7.690782144270528</v>
+      </c>
+      <c r="D90">
+        <v>0.8459821442705165</v>
+      </c>
+      <c r="E90">
+        <v>56.2152</v>
+      </c>
+      <c r="F90">
+        <v>56.3552</v>
+      </c>
+      <c r="G90">
+        <v>63.2</v>
+      </c>
+      <c r="H90">
+        <v>63.9</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>8.74</v>
+      </c>
+      <c r="K90">
+        <v>1.84</v>
+      </c>
+      <c r="L90">
+        <v>6.9</v>
+      </c>
+      <c r="M90">
+        <v>1.27362752</v>
+      </c>
+      <c r="N90">
+        <v>5.626372480000001</v>
+      </c>
+      <c r="O90">
+        <v>1.5753842944</v>
+      </c>
+      <c r="P90">
+        <v>4.050988185600001</v>
+      </c>
+      <c r="Q90">
+        <v>5.8909881856</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.2853098251869958</v>
+      </c>
+      <c r="T90">
+        <v>5.847665787860081</v>
+      </c>
+      <c r="U90">
+        <v>0.0226</v>
+      </c>
+      <c r="V90">
+        <v>0.28</v>
+      </c>
+      <c r="W90">
+        <v>0.016272</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>5.417596504196141</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.04850319731694211</v>
+      </c>
+      <c r="C91">
+        <v>7.05045086191798</v>
+      </c>
+      <c r="D91">
+        <v>0.8460508619179756</v>
+      </c>
+      <c r="E91">
+        <v>56.8556</v>
+      </c>
+      <c r="F91">
+        <v>56.9956</v>
+      </c>
+      <c r="G91">
+        <v>63.2</v>
+      </c>
+      <c r="H91">
+        <v>63.9</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>8.74</v>
+      </c>
+      <c r="K91">
+        <v>1.84</v>
+      </c>
+      <c r="L91">
+        <v>6.9</v>
+      </c>
+      <c r="M91">
+        <v>1.28810056</v>
+      </c>
+      <c r="N91">
+        <v>5.61189944</v>
+      </c>
+      <c r="O91">
+        <v>1.5713318432</v>
+      </c>
+      <c r="P91">
+        <v>4.0405675968</v>
+      </c>
+      <c r="Q91">
+        <v>5.8805675968</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.3092828846994737</v>
+      </c>
+      <c r="T91">
+        <v>6.355569591090546</v>
+      </c>
+      <c r="U91">
+        <v>0.0226</v>
+      </c>
+      <c r="V91">
+        <v>0.28</v>
+      </c>
+      <c r="W91">
+        <v>0.016272</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>5.356724633362477</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.04844985561144472</v>
+      </c>
+      <c r="C92">
+        <v>6.410119590729977</v>
+      </c>
+      <c r="D92">
+        <v>0.8461195907299699</v>
+      </c>
+      <c r="E92">
+        <v>57.496</v>
+      </c>
+      <c r="F92">
+        <v>57.636</v>
+      </c>
+      <c r="G92">
+        <v>63.2</v>
+      </c>
+      <c r="H92">
+        <v>63.9</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>8.74</v>
+      </c>
+      <c r="K92">
+        <v>1.84</v>
+      </c>
+      <c r="L92">
+        <v>6.9</v>
+      </c>
+      <c r="M92">
+        <v>1.3025736</v>
+      </c>
+      <c r="N92">
+        <v>5.597426400000001</v>
+      </c>
+      <c r="O92">
+        <v>1.567279392</v>
+      </c>
+      <c r="P92">
+        <v>4.030147008</v>
+      </c>
+      <c r="Q92">
+        <v>5.870147008</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.3380505561144473</v>
+      </c>
+      <c r="T92">
+        <v>6.965054154967104</v>
+      </c>
+      <c r="U92">
+        <v>0.0226</v>
+      </c>
+      <c r="V92">
+        <v>0.28</v>
+      </c>
+      <c r="W92">
+        <v>0.016272</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>5.29720547076956</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.04839651390594733</v>
+      </c>
+      <c r="C93">
+        <v>5.769788330709233</v>
+      </c>
+      <c r="D93">
+        <v>0.8461883307092203</v>
+      </c>
+      <c r="E93">
+        <v>58.13639999999999</v>
+      </c>
+      <c r="F93">
+        <v>58.2764</v>
+      </c>
+      <c r="G93">
+        <v>63.2</v>
+      </c>
+      <c r="H93">
+        <v>63.9</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>8.74</v>
+      </c>
+      <c r="K93">
+        <v>1.84</v>
+      </c>
+      <c r="L93">
+        <v>6.9</v>
+      </c>
+      <c r="M93">
+        <v>1.31704664</v>
+      </c>
+      <c r="N93">
+        <v>5.58295336</v>
+      </c>
+      <c r="O93">
+        <v>1.5632269408</v>
+      </c>
+      <c r="P93">
+        <v>4.0197264192</v>
+      </c>
+      <c r="Q93">
+        <v>5.8597264192</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.3732110433994149</v>
+      </c>
+      <c r="T93">
+        <v>7.709979733038453</v>
+      </c>
+      <c r="U93">
+        <v>0.0226</v>
+      </c>
+      <c r="V93">
+        <v>0.28</v>
+      </c>
+      <c r="W93">
+        <v>0.016272</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>5.238994421640225</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.04834317220044995</v>
+      </c>
+      <c r="C94">
+        <v>5.129457081858462</v>
+      </c>
+      <c r="D94">
+        <v>0.8462570818584488</v>
+      </c>
+      <c r="E94">
+        <v>58.77679999999999</v>
+      </c>
+      <c r="F94">
+        <v>58.91679999999999</v>
+      </c>
+      <c r="G94">
+        <v>63.2</v>
+      </c>
+      <c r="H94">
+        <v>63.9</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>8.74</v>
+      </c>
+      <c r="K94">
+        <v>1.84</v>
+      </c>
+      <c r="L94">
+        <v>6.9</v>
+      </c>
+      <c r="M94">
+        <v>1.33151968</v>
+      </c>
+      <c r="N94">
+        <v>5.568480320000001</v>
+      </c>
+      <c r="O94">
+        <v>1.5591744896</v>
+      </c>
+      <c r="P94">
+        <v>4.009305830400001</v>
+      </c>
+      <c r="Q94">
+        <v>5.849305830400001</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.4171616525056246</v>
+      </c>
+      <c r="T94">
+        <v>8.641136705627641</v>
+      </c>
+      <c r="U94">
+        <v>0.0226</v>
+      </c>
+      <c r="V94">
+        <v>0.28</v>
+      </c>
+      <c r="W94">
+        <v>0.016272</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>5.182048830100658</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.04828983049495256</v>
+      </c>
+      <c r="C95">
+        <v>4.489125844180393</v>
+      </c>
+      <c r="D95">
+        <v>0.8463258441803784</v>
+      </c>
+      <c r="E95">
+        <v>59.41719999999999</v>
+      </c>
+      <c r="F95">
+        <v>59.55719999999999</v>
+      </c>
+      <c r="G95">
+        <v>63.2</v>
+      </c>
+      <c r="H95">
+        <v>63.9</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>8.74</v>
+      </c>
+      <c r="K95">
+        <v>1.84</v>
+      </c>
+      <c r="L95">
+        <v>6.9</v>
+      </c>
+      <c r="M95">
+        <v>1.34599272</v>
+      </c>
+      <c r="N95">
+        <v>5.55400728</v>
+      </c>
+      <c r="O95">
+        <v>1.5551220384</v>
+      </c>
+      <c r="P95">
+        <v>3.9988852416</v>
+      </c>
+      <c r="Q95">
+        <v>5.8388852416</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.4736695784993227</v>
+      </c>
+      <c r="T95">
+        <v>9.838338527528023</v>
+      </c>
+      <c r="U95">
+        <v>0.0226</v>
+      </c>
+      <c r="V95">
+        <v>0.28</v>
+      </c>
+      <c r="W95">
+        <v>0.016272</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>5.126327874938284</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.04823648878945517</v>
+      </c>
+      <c r="C96">
+        <v>3.84879461767774</v>
+      </c>
+      <c r="D96">
+        <v>0.8463946176777325</v>
+      </c>
+      <c r="E96">
+        <v>60.05759999999999</v>
+      </c>
+      <c r="F96">
+        <v>60.19759999999999</v>
+      </c>
+      <c r="G96">
+        <v>63.2</v>
+      </c>
+      <c r="H96">
+        <v>63.9</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>8.74</v>
+      </c>
+      <c r="K96">
+        <v>1.84</v>
+      </c>
+      <c r="L96">
+        <v>6.9</v>
+      </c>
+      <c r="M96">
+        <v>1.36046576</v>
+      </c>
+      <c r="N96">
+        <v>5.53953424</v>
+      </c>
+      <c r="O96">
+        <v>1.5510695872</v>
+      </c>
+      <c r="P96">
+        <v>3.9884646528</v>
+      </c>
+      <c r="Q96">
+        <v>5.8284646528</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.5490134798242534</v>
+      </c>
+      <c r="T96">
+        <v>11.4346076233952</v>
+      </c>
+      <c r="U96">
+        <v>0.0226</v>
+      </c>
+      <c r="V96">
+        <v>0.28</v>
+      </c>
+      <c r="W96">
+        <v>0.016272</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>5.071792472013408</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.04818314708395779</v>
+      </c>
+      <c r="C97">
+        <v>3.208463402353246</v>
+      </c>
+      <c r="D97">
+        <v>0.8464634023532358</v>
+      </c>
+      <c r="E97">
+        <v>60.69799999999999</v>
+      </c>
+      <c r="F97">
+        <v>60.83799999999999</v>
+      </c>
+      <c r="G97">
+        <v>63.2</v>
+      </c>
+      <c r="H97">
+        <v>63.9</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>8.74</v>
+      </c>
+      <c r="K97">
+        <v>1.84</v>
+      </c>
+      <c r="L97">
+        <v>6.9</v>
+      </c>
+      <c r="M97">
+        <v>1.3749388</v>
+      </c>
+      <c r="N97">
+        <v>5.525061200000001</v>
+      </c>
+      <c r="O97">
+        <v>1.547017136</v>
+      </c>
+      <c r="P97">
+        <v>3.978044064000001</v>
+      </c>
+      <c r="Q97">
+        <v>5.818044064</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.6544949416791567</v>
+      </c>
+      <c r="T97">
+        <v>13.66938435760925</v>
+      </c>
+      <c r="U97">
+        <v>0.0226</v>
+      </c>
+      <c r="V97">
+        <v>0.28</v>
+      </c>
+      <c r="W97">
+        <v>0.016272</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>5.018405182834321</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.0481298053784604</v>
+      </c>
+      <c r="C98">
+        <v>2.568132198209625</v>
+      </c>
+      <c r="D98">
+        <v>0.8465321982096141</v>
+      </c>
+      <c r="E98">
+        <v>61.33839999999999</v>
+      </c>
+      <c r="F98">
+        <v>61.47839999999999</v>
+      </c>
+      <c r="G98">
+        <v>63.2</v>
+      </c>
+      <c r="H98">
+        <v>63.9</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>8.74</v>
+      </c>
+      <c r="K98">
+        <v>1.84</v>
+      </c>
+      <c r="L98">
+        <v>6.9</v>
+      </c>
+      <c r="M98">
+        <v>1.38941184</v>
+      </c>
+      <c r="N98">
+        <v>5.510588160000001</v>
+      </c>
+      <c r="O98">
+        <v>1.5429646848</v>
+      </c>
+      <c r="P98">
+        <v>3.967623475200001</v>
+      </c>
+      <c r="Q98">
+        <v>5.807623475200001</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>0.8127171344615094</v>
+      </c>
+      <c r="T98">
+        <v>17.02154945893028</v>
+      </c>
+      <c r="U98">
+        <v>0.0226</v>
+      </c>
+      <c r="V98">
+        <v>0.28</v>
+      </c>
+      <c r="W98">
+        <v>0.016272</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>4.966130128846464</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.04807646367296302</v>
+      </c>
+      <c r="C99">
+        <v>1.927801005249606</v>
+      </c>
+      <c r="D99">
+        <v>0.8466010052495934</v>
+      </c>
+      <c r="E99">
+        <v>61.97879999999999</v>
+      </c>
+      <c r="F99">
+        <v>62.11879999999999</v>
+      </c>
+      <c r="G99">
+        <v>63.2</v>
+      </c>
+      <c r="H99">
+        <v>63.9</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>8.74</v>
+      </c>
+      <c r="K99">
+        <v>1.84</v>
+      </c>
+      <c r="L99">
+        <v>6.9</v>
+      </c>
+      <c r="M99">
+        <v>1.40388488</v>
+      </c>
+      <c r="N99">
+        <v>5.496115120000001</v>
+      </c>
+      <c r="O99">
+        <v>1.5389122336</v>
+      </c>
+      <c r="P99">
+        <v>3.9572028864</v>
+      </c>
+      <c r="Q99">
+        <v>5.7972028864</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.076420789098766</v>
+      </c>
+      <c r="T99">
+        <v>22.60849129446539</v>
+      </c>
+      <c r="U99">
+        <v>0.0226</v>
+      </c>
+      <c r="V99">
+        <v>0.28</v>
+      </c>
+      <c r="W99">
+        <v>0.016272</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>4.914932911023304</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.04802312196746563</v>
+      </c>
+      <c r="C100">
+        <v>1.287469823475917</v>
+      </c>
+      <c r="D100">
+        <v>0.8466698234759013</v>
+      </c>
+      <c r="E100">
+        <v>62.61919999999999</v>
+      </c>
+      <c r="F100">
+        <v>62.75919999999999</v>
+      </c>
+      <c r="G100">
+        <v>63.2</v>
+      </c>
+      <c r="H100">
+        <v>63.9</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>8.74</v>
+      </c>
+      <c r="K100">
+        <v>1.84</v>
+      </c>
+      <c r="L100">
+        <v>6.9</v>
+      </c>
+      <c r="M100">
+        <v>1.41835792</v>
+      </c>
+      <c r="N100">
+        <v>5.48164208</v>
+      </c>
+      <c r="O100">
+        <v>1.5348597824</v>
+      </c>
+      <c r="P100">
+        <v>3.9467822976</v>
+      </c>
+      <c r="Q100">
+        <v>5.7867822976</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>1.60382809837328</v>
+      </c>
+      <c r="T100">
+        <v>33.7823749655356</v>
+      </c>
+      <c r="U100">
+        <v>0.0226</v>
+      </c>
+      <c r="V100">
+        <v>0.28</v>
+      </c>
+      <c r="W100">
+        <v>0.016272</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>4.864780534380209</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.04796978026196824</v>
+      </c>
+      <c r="C101">
+        <v>0.6471386528912717</v>
+      </c>
+      <c r="D101">
+        <v>0.8467386528912656</v>
+      </c>
+      <c r="E101">
+        <v>63.25959999999999</v>
+      </c>
+      <c r="F101">
+        <v>63.39959999999999</v>
+      </c>
+      <c r="G101">
+        <v>63.2</v>
+      </c>
+      <c r="H101">
+        <v>63.9</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>8.74</v>
+      </c>
+      <c r="K101">
+        <v>1.84</v>
+      </c>
+      <c r="L101">
+        <v>6.9</v>
+      </c>
+      <c r="M101">
+        <v>1.43283096</v>
+      </c>
+      <c r="N101">
+        <v>5.467169040000001</v>
+      </c>
+      <c r="O101">
+        <v>1.5308073312</v>
+      </c>
+      <c r="P101">
+        <v>3.936361708800001</v>
+      </c>
+      <c r="Q101">
+        <v>5.776361708800001</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>3.186050026196822</v>
+      </c>
+      <c r="T101">
+        <v>67.30402597874622</v>
+      </c>
+      <c r="U101">
+        <v>0.0226</v>
+      </c>
+      <c r="V101">
+        <v>0.28</v>
+      </c>
+      <c r="W101">
+        <v>0.016272</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>4.815641337063237</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
